--- a/Paolo/Código Final/Bases Finales/Informes_2023.xlsx
+++ b/Paolo/Código Final/Bases Finales/Informes_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAPTOP ACER\REPOSITORIO_GITHUB\OEFA_SMER\Paolo\Código Final\Bases Finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26474CCF-9BA0-4A0E-A610-CD320B4213CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437A4EF0-CAD5-4452-92F6-BAE2C55FD573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Componentes" sheetId="1" r:id="rId1"/>
@@ -3977,13 +3977,6 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3992,6 +3985,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4210,7 +4210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
@@ -43279,7 +43279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H860"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
@@ -43292,7 +43292,7 @@
     <col min="4" max="4" width="22.453125" customWidth="1"/>
     <col min="5" max="5" width="83.6328125" customWidth="1"/>
     <col min="6" max="6" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" style="71" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" style="68" customWidth="1"/>
     <col min="8" max="8" width="26.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="25" width="10.6328125" customWidth="1"/>
   </cols>
@@ -43338,7 +43338,7 @@
       <c r="F2" s="55">
         <v>1</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H2" s="57" t="s">
@@ -43360,7 +43360,7 @@
       <c r="F3" s="55">
         <v>1</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H3" s="57" t="s">
@@ -43386,7 +43386,7 @@
       <c r="F4" s="55">
         <v>0.26</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H4" s="57" t="s">
@@ -43412,7 +43412,7 @@
       <c r="F5" s="55">
         <v>0.1</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H5" s="57" t="s">
@@ -43438,7 +43438,7 @@
       <c r="F6" s="55">
         <v>0.06</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H6" s="57" t="s">
@@ -43464,7 +43464,7 @@
       <c r="F7" s="55">
         <v>0.1</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H7" s="57" t="s">
@@ -43490,7 +43490,7 @@
       <c r="F8" s="55">
         <v>0.04</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H8" s="57" t="s">
@@ -43516,7 +43516,7 @@
       <c r="F9" s="55">
         <v>0.06</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H9" s="57" t="s">
@@ -43542,7 +43542,7 @@
       <c r="F10" s="55">
         <v>0.26</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H10" s="57" t="s">
@@ -43568,7 +43568,7 @@
       <c r="F11" s="55">
         <v>0.1</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H11" s="57" t="s">
@@ -43594,7 +43594,7 @@
       <c r="F12" s="55">
         <v>0.06</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H12" s="57" t="s">
@@ -43620,7 +43620,7 @@
       <c r="F13" s="55">
         <v>0.1</v>
       </c>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H13" s="57" t="s">
@@ -43646,7 +43646,7 @@
       <c r="F14" s="55">
         <v>0.04</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H14" s="57" t="s">
@@ -43672,7 +43672,7 @@
       <c r="F15" s="55">
         <v>0.06</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H15" s="57" t="s">
@@ -43694,7 +43694,7 @@
       <c r="F16" s="55">
         <v>1</v>
       </c>
-      <c r="G16" s="69" t="s">
+      <c r="G16" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H16" s="57" t="s">
@@ -43716,7 +43716,7 @@
       <c r="F17" s="55">
         <v>1</v>
       </c>
-      <c r="G17" s="69" t="s">
+      <c r="G17" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H17" s="57" t="s">
@@ -43738,7 +43738,7 @@
       <c r="F18" s="55">
         <v>1</v>
       </c>
-      <c r="G18" s="69" t="s">
+      <c r="G18" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H18" s="57" t="s">
@@ -43760,7 +43760,7 @@
       <c r="F19" s="55">
         <v>1</v>
       </c>
-      <c r="G19" s="69" t="s">
+      <c r="G19" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H19" s="57" t="s">
@@ -43786,7 +43786,7 @@
       <c r="F20" s="55">
         <v>0.26</v>
       </c>
-      <c r="G20" s="69" t="s">
+      <c r="G20" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H20" s="57" t="s">
@@ -43812,7 +43812,7 @@
       <c r="F21" s="55">
         <v>0.1</v>
       </c>
-      <c r="G21" s="69" t="s">
+      <c r="G21" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H21" s="57" t="s">
@@ -43838,7 +43838,7 @@
       <c r="F22" s="55">
         <v>0.06</v>
       </c>
-      <c r="G22" s="69" t="s">
+      <c r="G22" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H22" s="57" t="s">
@@ -43864,7 +43864,7 @@
       <c r="F23" s="55">
         <v>0.1</v>
       </c>
-      <c r="G23" s="69" t="s">
+      <c r="G23" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H23" s="57" t="s">
@@ -43890,7 +43890,7 @@
       <c r="F24" s="55">
         <v>0.04</v>
       </c>
-      <c r="G24" s="69" t="s">
+      <c r="G24" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H24" s="57" t="s">
@@ -43916,7 +43916,7 @@
       <c r="F25" s="55">
         <v>0.06</v>
       </c>
-      <c r="G25" s="69" t="s">
+      <c r="G25" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H25" s="57" t="s">
@@ -43938,7 +43938,7 @@
       <c r="F26" s="55">
         <v>1</v>
       </c>
-      <c r="G26" s="69" t="s">
+      <c r="G26" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H26" s="57" t="s">
@@ -43960,7 +43960,7 @@
       <c r="F27" s="55">
         <v>1</v>
       </c>
-      <c r="G27" s="69" t="s">
+      <c r="G27" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H27" s="57" t="s">
@@ -43986,7 +43986,7 @@
       <c r="F28" s="55">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G28" s="69" t="s">
+      <c r="G28" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H28" s="57" t="s">
@@ -44012,7 +44012,7 @@
       <c r="F29" s="55">
         <v>0.3</v>
       </c>
-      <c r="G29" s="69" t="s">
+      <c r="G29" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H29" s="57" t="s">
@@ -44038,7 +44038,7 @@
       <c r="F30" s="55">
         <v>0.06</v>
       </c>
-      <c r="G30" s="69" t="s">
+      <c r="G30" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H30" s="57" t="s">
@@ -44064,7 +44064,7 @@
       <c r="F31" s="55">
         <v>0.1</v>
       </c>
-      <c r="G31" s="69" t="s">
+      <c r="G31" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H31" s="57" t="s">
@@ -44090,7 +44090,7 @@
       <c r="F32" s="55">
         <v>0.12</v>
       </c>
-      <c r="G32" s="69" t="s">
+      <c r="G32" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H32" s="57" t="s">
@@ -44116,7 +44116,7 @@
       <c r="F33" s="55">
         <v>0.04</v>
       </c>
-      <c r="G33" s="69" t="s">
+      <c r="G33" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H33" s="57" t="s">
@@ -44142,7 +44142,7 @@
       <c r="F34" s="55">
         <v>0.06</v>
       </c>
-      <c r="G34" s="69" t="s">
+      <c r="G34" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H34" s="57" t="s">
@@ -44168,7 +44168,7 @@
       <c r="F35" s="55">
         <v>0.1</v>
       </c>
-      <c r="G35" s="69" t="s">
+      <c r="G35" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H35" s="57" t="s">
@@ -44190,7 +44190,7 @@
       <c r="F36" s="55">
         <v>1</v>
       </c>
-      <c r="G36" s="69" t="s">
+      <c r="G36" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H36" s="57" t="s">
@@ -44212,7 +44212,7 @@
       <c r="F37" s="55">
         <v>1</v>
       </c>
-      <c r="G37" s="69" t="s">
+      <c r="G37" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H37" s="57" t="s">
@@ -44238,7 +44238,7 @@
       <c r="F38" s="55">
         <v>0.52</v>
       </c>
-      <c r="G38" s="69" t="s">
+      <c r="G38" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H38" s="57" t="s">
@@ -44264,7 +44264,7 @@
       <c r="F39" s="55">
         <v>0.3</v>
       </c>
-      <c r="G39" s="69" t="s">
+      <c r="G39" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H39" s="57" t="s">
@@ -44290,7 +44290,7 @@
       <c r="F40" s="55">
         <v>0.1</v>
       </c>
-      <c r="G40" s="69" t="s">
+      <c r="G40" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H40" s="57" t="s">
@@ -44316,7 +44316,7 @@
       <c r="F41" s="55">
         <v>0.12</v>
       </c>
-      <c r="G41" s="69" t="s">
+      <c r="G41" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H41" s="57" t="s">
@@ -44342,7 +44342,7 @@
       <c r="F42" s="55">
         <v>0.08</v>
       </c>
-      <c r="G42" s="69" t="s">
+      <c r="G42" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H42" s="57" t="s">
@@ -44368,7 +44368,7 @@
       <c r="F43" s="55">
         <v>0.06</v>
       </c>
-      <c r="G43" s="69" t="s">
+      <c r="G43" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H43" s="57" t="s">
@@ -44394,7 +44394,7 @@
       <c r="F44" s="55">
         <v>0.52</v>
       </c>
-      <c r="G44" s="69" t="s">
+      <c r="G44" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H44" s="57" t="s">
@@ -44420,7 +44420,7 @@
       <c r="F45" s="55">
         <v>0.3</v>
       </c>
-      <c r="G45" s="69" t="s">
+      <c r="G45" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H45" s="57" t="s">
@@ -44446,7 +44446,7 @@
       <c r="F46" s="55">
         <v>0.1</v>
       </c>
-      <c r="G46" s="69" t="s">
+      <c r="G46" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H46" s="57" t="s">
@@ -44472,7 +44472,7 @@
       <c r="F47" s="55">
         <v>0.12</v>
       </c>
-      <c r="G47" s="69" t="s">
+      <c r="G47" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H47" s="57" t="s">
@@ -44498,7 +44498,7 @@
       <c r="F48" s="55">
         <v>0.08</v>
       </c>
-      <c r="G48" s="69" t="s">
+      <c r="G48" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H48" s="57" t="s">
@@ -44524,7 +44524,7 @@
       <c r="F49" s="55">
         <v>0.06</v>
       </c>
-      <c r="G49" s="69" t="s">
+      <c r="G49" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H49" s="57" t="s">
@@ -44550,7 +44550,7 @@
       <c r="F50" s="55">
         <v>0.52</v>
       </c>
-      <c r="G50" s="69" t="s">
+      <c r="G50" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H50" s="57" t="s">
@@ -44576,7 +44576,7 @@
       <c r="F51" s="55">
         <v>0.3</v>
       </c>
-      <c r="G51" s="69" t="s">
+      <c r="G51" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H51" s="57" t="s">
@@ -44602,7 +44602,7 @@
       <c r="F52" s="55">
         <v>0.1</v>
       </c>
-      <c r="G52" s="69" t="s">
+      <c r="G52" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H52" s="57" t="s">
@@ -44628,7 +44628,7 @@
       <c r="F53" s="55">
         <v>0.12</v>
       </c>
-      <c r="G53" s="69" t="s">
+      <c r="G53" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H53" s="57" t="s">
@@ -44654,7 +44654,7 @@
       <c r="F54" s="55">
         <v>0.08</v>
       </c>
-      <c r="G54" s="69" t="s">
+      <c r="G54" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H54" s="57" t="s">
@@ -44680,7 +44680,7 @@
       <c r="F55" s="55">
         <v>0.06</v>
       </c>
-      <c r="G55" s="69" t="s">
+      <c r="G55" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H55" s="57" t="s">
@@ -44706,7 +44706,7 @@
       <c r="F56" s="55">
         <v>0.52</v>
       </c>
-      <c r="G56" s="69" t="s">
+      <c r="G56" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H56" s="57" t="s">
@@ -44732,7 +44732,7 @@
       <c r="F57" s="55">
         <v>0.3</v>
       </c>
-      <c r="G57" s="69" t="s">
+      <c r="G57" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H57" s="57" t="s">
@@ -44758,7 +44758,7 @@
       <c r="F58" s="55">
         <v>0.1</v>
       </c>
-      <c r="G58" s="69" t="s">
+      <c r="G58" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H58" s="57" t="s">
@@ -44784,7 +44784,7 @@
       <c r="F59" s="55">
         <v>0.12</v>
       </c>
-      <c r="G59" s="69" t="s">
+      <c r="G59" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H59" s="57" t="s">
@@ -44810,7 +44810,7 @@
       <c r="F60" s="55">
         <v>0.08</v>
       </c>
-      <c r="G60" s="69" t="s">
+      <c r="G60" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H60" s="57" t="s">
@@ -44836,7 +44836,7 @@
       <c r="F61" s="55">
         <v>0.06</v>
       </c>
-      <c r="G61" s="69" t="s">
+      <c r="G61" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H61" s="57" t="s">
@@ -44862,7 +44862,7 @@
       <c r="F62" s="55">
         <v>0.52</v>
       </c>
-      <c r="G62" s="69" t="s">
+      <c r="G62" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H62" s="57" t="s">
@@ -44888,7 +44888,7 @@
       <c r="F63" s="55">
         <v>0.3</v>
       </c>
-      <c r="G63" s="69" t="s">
+      <c r="G63" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H63" s="57" t="s">
@@ -44914,7 +44914,7 @@
       <c r="F64" s="55">
         <v>0.1</v>
       </c>
-      <c r="G64" s="69" t="s">
+      <c r="G64" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H64" s="57" t="s">
@@ -44940,7 +44940,7 @@
       <c r="F65" s="55">
         <v>0.12</v>
       </c>
-      <c r="G65" s="69" t="s">
+      <c r="G65" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H65" s="57" t="s">
@@ -44966,7 +44966,7 @@
       <c r="F66" s="55">
         <v>0.08</v>
       </c>
-      <c r="G66" s="69" t="s">
+      <c r="G66" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H66" s="57" t="s">
@@ -44992,7 +44992,7 @@
       <c r="F67" s="55">
         <v>0.06</v>
       </c>
-      <c r="G67" s="69" t="s">
+      <c r="G67" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H67" s="57" t="s">
@@ -45018,7 +45018,7 @@
       <c r="F68" s="55">
         <v>0.6</v>
       </c>
-      <c r="G68" s="69" t="s">
+      <c r="G68" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H68" s="57" t="s">
@@ -45044,7 +45044,7 @@
       <c r="F69" s="55">
         <v>0.2</v>
       </c>
-      <c r="G69" s="69" t="s">
+      <c r="G69" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H69" s="57" t="s">
@@ -45070,7 +45070,7 @@
       <c r="F70" s="55">
         <v>0.18</v>
       </c>
-      <c r="G70" s="69" t="s">
+      <c r="G70" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H70" s="57" t="s">
@@ -45096,7 +45096,7 @@
       <c r="F71" s="55">
         <v>0.1</v>
       </c>
-      <c r="G71" s="69" t="s">
+      <c r="G71" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H71" s="57" t="s">
@@ -45122,7 +45122,7 @@
       <c r="F72" s="55">
         <v>0.12</v>
       </c>
-      <c r="G72" s="69" t="s">
+      <c r="G72" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H72" s="57" t="s">
@@ -45148,7 +45148,7 @@
       <c r="F73" s="55">
         <v>0.08</v>
       </c>
-      <c r="G73" s="69" t="s">
+      <c r="G73" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H73" s="57" t="s">
@@ -45174,7 +45174,7 @@
       <c r="F74" s="55">
         <v>0.06</v>
       </c>
-      <c r="G74" s="69" t="s">
+      <c r="G74" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H74" s="57" t="s">
@@ -45200,7 +45200,7 @@
       <c r="F75" s="55">
         <v>0.1</v>
       </c>
-      <c r="G75" s="69" t="s">
+      <c r="G75" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H75" s="57" t="s">
@@ -45226,7 +45226,7 @@
       <c r="F76" s="55">
         <v>0.48</v>
       </c>
-      <c r="G76" s="69" t="s">
+      <c r="G76" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H76" s="57" t="s">
@@ -45252,7 +45252,7 @@
       <c r="F77" s="55">
         <v>0.2</v>
       </c>
-      <c r="G77" s="69" t="s">
+      <c r="G77" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H77" s="57" t="s">
@@ -45278,7 +45278,7 @@
       <c r="F78" s="55">
         <v>0.06</v>
       </c>
-      <c r="G78" s="69" t="s">
+      <c r="G78" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H78" s="57" t="s">
@@ -45304,7 +45304,7 @@
       <c r="F79" s="55">
         <v>0.1</v>
       </c>
-      <c r="G79" s="69" t="s">
+      <c r="G79" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H79" s="57" t="s">
@@ -45330,7 +45330,7 @@
       <c r="F80" s="55">
         <v>0.12</v>
       </c>
-      <c r="G80" s="69" t="s">
+      <c r="G80" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H80" s="57" t="s">
@@ -45356,7 +45356,7 @@
       <c r="F81" s="55">
         <v>0.08</v>
       </c>
-      <c r="G81" s="69" t="s">
+      <c r="G81" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H81" s="57" t="s">
@@ -45382,7 +45382,7 @@
       <c r="F82" s="55">
         <v>0.06</v>
       </c>
-      <c r="G82" s="69" t="s">
+      <c r="G82" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H82" s="57" t="s">
@@ -45408,7 +45408,7 @@
       <c r="F83" s="55">
         <v>0.1</v>
       </c>
-      <c r="G83" s="69" t="s">
+      <c r="G83" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H83" s="57" t="s">
@@ -45434,7 +45434,7 @@
       <c r="F84" s="55">
         <v>0.6</v>
       </c>
-      <c r="G84" s="69" t="s">
+      <c r="G84" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H84" s="57" t="s">
@@ -45460,7 +45460,7 @@
       <c r="F85" s="55">
         <v>0.2</v>
       </c>
-      <c r="G85" s="69" t="s">
+      <c r="G85" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H85" s="57" t="s">
@@ -45486,7 +45486,7 @@
       <c r="F86" s="55">
         <v>0.18</v>
       </c>
-      <c r="G86" s="69" t="s">
+      <c r="G86" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H86" s="57" t="s">
@@ -45512,7 +45512,7 @@
       <c r="F87" s="55">
         <v>0.1</v>
       </c>
-      <c r="G87" s="69" t="s">
+      <c r="G87" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H87" s="57" t="s">
@@ -45538,7 +45538,7 @@
       <c r="F88" s="55">
         <v>0.12</v>
       </c>
-      <c r="G88" s="69" t="s">
+      <c r="G88" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H88" s="57" t="s">
@@ -45564,7 +45564,7 @@
       <c r="F89" s="55">
         <v>0.08</v>
       </c>
-      <c r="G89" s="69" t="s">
+      <c r="G89" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H89" s="57" t="s">
@@ -45590,7 +45590,7 @@
       <c r="F90" s="55">
         <v>0.06</v>
       </c>
-      <c r="G90" s="69" t="s">
+      <c r="G90" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H90" s="57" t="s">
@@ -45616,7 +45616,7 @@
       <c r="F91" s="55">
         <v>0.1</v>
       </c>
-      <c r="G91" s="69" t="s">
+      <c r="G91" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H91" s="57" t="s">
@@ -45642,7 +45642,7 @@
       <c r="F92" s="55">
         <v>0.48</v>
       </c>
-      <c r="G92" s="69" t="s">
+      <c r="G92" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H92" s="57" t="s">
@@ -45668,7 +45668,7 @@
       <c r="F93" s="55">
         <v>0.2</v>
       </c>
-      <c r="G93" s="69" t="s">
+      <c r="G93" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H93" s="57" t="s">
@@ -45694,7 +45694,7 @@
       <c r="F94" s="55">
         <v>0.18</v>
       </c>
-      <c r="G94" s="69" t="s">
+      <c r="G94" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H94" s="57" t="s">
@@ -45720,7 +45720,7 @@
       <c r="F95" s="55">
         <v>0.1</v>
       </c>
-      <c r="G95" s="69" t="s">
+      <c r="G95" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H95" s="57" t="s">
@@ -45746,7 +45746,7 @@
       <c r="F96" s="55">
         <v>0.08</v>
       </c>
-      <c r="G96" s="69" t="s">
+      <c r="G96" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H96" s="57" t="s">
@@ -45772,7 +45772,7 @@
       <c r="F97" s="55">
         <v>0.06</v>
       </c>
-      <c r="G97" s="69" t="s">
+      <c r="G97" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H97" s="57" t="s">
@@ -45798,7 +45798,7 @@
       <c r="F98" s="55">
         <v>0.48</v>
       </c>
-      <c r="G98" s="69" t="s">
+      <c r="G98" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H98" s="57" t="s">
@@ -45824,7 +45824,7 @@
       <c r="F99" s="55">
         <v>0.2</v>
       </c>
-      <c r="G99" s="69" t="s">
+      <c r="G99" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H99" s="57" t="s">
@@ -45850,7 +45850,7 @@
       <c r="F100" s="55">
         <v>0.18</v>
       </c>
-      <c r="G100" s="69" t="s">
+      <c r="G100" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H100" s="57" t="s">
@@ -45876,7 +45876,7 @@
       <c r="F101" s="55">
         <v>0.1</v>
       </c>
-      <c r="G101" s="69" t="s">
+      <c r="G101" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H101" s="57" t="s">
@@ -45902,7 +45902,7 @@
       <c r="F102" s="55">
         <v>0.08</v>
       </c>
-      <c r="G102" s="69" t="s">
+      <c r="G102" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H102" s="57" t="s">
@@ -45928,7 +45928,7 @@
       <c r="F103" s="55">
         <v>0.06</v>
       </c>
-      <c r="G103" s="69" t="s">
+      <c r="G103" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H103" s="57" t="s">
@@ -45954,7 +45954,7 @@
       <c r="F104" s="55">
         <v>0.54</v>
       </c>
-      <c r="G104" s="69" t="s">
+      <c r="G104" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H104" s="57" t="s">
@@ -45980,7 +45980,7 @@
       <c r="F105" s="55">
         <v>0.2</v>
       </c>
-      <c r="G105" s="69" t="s">
+      <c r="G105" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H105" s="57" t="s">
@@ -46006,7 +46006,7 @@
       <c r="F106" s="55">
         <v>0.12</v>
       </c>
-      <c r="G106" s="69" t="s">
+      <c r="G106" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H106" s="57" t="s">
@@ -46032,7 +46032,7 @@
       <c r="F107" s="55">
         <v>0.1</v>
       </c>
-      <c r="G107" s="69" t="s">
+      <c r="G107" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H107" s="57" t="s">
@@ -46058,7 +46058,7 @@
       <c r="F108" s="55">
         <v>0.12</v>
       </c>
-      <c r="G108" s="69" t="s">
+      <c r="G108" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H108" s="57" t="s">
@@ -46084,7 +46084,7 @@
       <c r="F109" s="55">
         <v>0.08</v>
       </c>
-      <c r="G109" s="69" t="s">
+      <c r="G109" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H109" s="57" t="s">
@@ -46110,7 +46110,7 @@
       <c r="F110" s="55">
         <v>0.06</v>
       </c>
-      <c r="G110" s="69" t="s">
+      <c r="G110" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H110" s="57" t="s">
@@ -46132,7 +46132,7 @@
       <c r="F111" s="55">
         <v>1</v>
       </c>
-      <c r="G111" s="69" t="s">
+      <c r="G111" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H111" s="57" t="s">
@@ -46152,7 +46152,7 @@
         <v>64</v>
       </c>
       <c r="F112" s="55"/>
-      <c r="G112" s="69" t="s">
+      <c r="G112" s="66" t="s">
         <v>648</v>
       </c>
       <c r="H112" s="64" t="s">
@@ -46174,7 +46174,7 @@
       <c r="F113" s="55">
         <v>1</v>
       </c>
-      <c r="G113" s="69" t="s">
+      <c r="G113" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H113" s="57" t="s">
@@ -46200,7 +46200,7 @@
       <c r="F114" s="55">
         <v>0.26</v>
       </c>
-      <c r="G114" s="69" t="s">
+      <c r="G114" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H114" s="57" t="s">
@@ -46226,7 +46226,7 @@
       <c r="F115" s="55">
         <v>0.1</v>
       </c>
-      <c r="G115" s="69" t="s">
+      <c r="G115" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H115" s="57" t="s">
@@ -46252,7 +46252,7 @@
       <c r="F116" s="55">
         <v>0.06</v>
       </c>
-      <c r="G116" s="69" t="s">
+      <c r="G116" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H116" s="57" t="s">
@@ -46278,7 +46278,7 @@
       <c r="F117" s="55">
         <v>0.1</v>
       </c>
-      <c r="G117" s="69" t="s">
+      <c r="G117" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H117" s="57" t="s">
@@ -46304,7 +46304,7 @@
       <c r="F118" s="55">
         <v>0.04</v>
       </c>
-      <c r="G118" s="69" t="s">
+      <c r="G118" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H118" s="57" t="s">
@@ -46330,7 +46330,7 @@
       <c r="F119" s="55">
         <v>0.06</v>
       </c>
-      <c r="G119" s="69" t="s">
+      <c r="G119" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H119" s="57" t="s">
@@ -46352,7 +46352,7 @@
       <c r="F120" s="55">
         <v>1</v>
       </c>
-      <c r="G120" s="69" t="s">
+      <c r="G120" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H120" s="57" t="s">
@@ -46374,7 +46374,7 @@
       <c r="F121" s="55">
         <v>1</v>
       </c>
-      <c r="G121" s="69" t="s">
+      <c r="G121" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H121" s="57" t="s">
@@ -46400,7 +46400,7 @@
       <c r="F122" s="55">
         <v>0.36</v>
       </c>
-      <c r="G122" s="69" t="s">
+      <c r="G122" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H122" s="57" t="s">
@@ -46426,7 +46426,7 @@
       <c r="F123" s="55">
         <v>0.2</v>
       </c>
-      <c r="G123" s="69" t="s">
+      <c r="G123" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H123" s="57" t="s">
@@ -46452,7 +46452,7 @@
       <c r="F124" s="55">
         <v>0.06</v>
       </c>
-      <c r="G124" s="69" t="s">
+      <c r="G124" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H124" s="57" t="s">
@@ -46478,7 +46478,7 @@
       <c r="F125" s="55">
         <v>0.1</v>
       </c>
-      <c r="G125" s="69" t="s">
+      <c r="G125" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H125" s="57" t="s">
@@ -46504,7 +46504,7 @@
       <c r="F126" s="55">
         <v>0.08</v>
       </c>
-      <c r="G126" s="69" t="s">
+      <c r="G126" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H126" s="57" t="s">
@@ -46530,7 +46530,7 @@
       <c r="F127" s="55">
         <v>0.06</v>
       </c>
-      <c r="G127" s="69" t="s">
+      <c r="G127" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H127" s="57" t="s">
@@ -46556,7 +46556,7 @@
       <c r="F128" s="55">
         <v>0.26</v>
       </c>
-      <c r="G128" s="69" t="s">
+      <c r="G128" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H128" s="57" t="s">
@@ -46582,7 +46582,7 @@
       <c r="F129" s="55">
         <v>0.1</v>
       </c>
-      <c r="G129" s="69" t="s">
+      <c r="G129" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H129" s="57" t="s">
@@ -46608,7 +46608,7 @@
       <c r="F130" s="55">
         <v>0.06</v>
       </c>
-      <c r="G130" s="69" t="s">
+      <c r="G130" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H130" s="57" t="s">
@@ -46634,7 +46634,7 @@
       <c r="F131" s="55">
         <v>0.1</v>
       </c>
-      <c r="G131" s="69" t="s">
+      <c r="G131" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H131" s="57" t="s">
@@ -46660,7 +46660,7 @@
       <c r="F132" s="55">
         <v>0.08</v>
       </c>
-      <c r="G132" s="69" t="s">
+      <c r="G132" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H132" s="57" t="s">
@@ -46686,7 +46686,7 @@
       <c r="F133" s="55">
         <v>0.06</v>
       </c>
-      <c r="G133" s="69" t="s">
+      <c r="G133" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H133" s="57" t="s">
@@ -46712,7 +46712,7 @@
       <c r="F134" s="55">
         <v>0.26</v>
       </c>
-      <c r="G134" s="69" t="s">
+      <c r="G134" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H134" s="57" t="s">
@@ -46738,7 +46738,7 @@
       <c r="F135" s="55">
         <v>0.1</v>
       </c>
-      <c r="G135" s="69" t="s">
+      <c r="G135" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H135" s="57" t="s">
@@ -46764,7 +46764,7 @@
       <c r="F136" s="55">
         <v>0.06</v>
       </c>
-      <c r="G136" s="69" t="s">
+      <c r="G136" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H136" s="57" t="s">
@@ -46790,7 +46790,7 @@
       <c r="F137" s="55">
         <v>0.1</v>
       </c>
-      <c r="G137" s="69" t="s">
+      <c r="G137" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H137" s="57" t="s">
@@ -46816,7 +46816,7 @@
       <c r="F138" s="55">
         <v>0.08</v>
       </c>
-      <c r="G138" s="69" t="s">
+      <c r="G138" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H138" s="57" t="s">
@@ -46842,7 +46842,7 @@
       <c r="F139" s="55">
         <v>0.06</v>
       </c>
-      <c r="G139" s="69" t="s">
+      <c r="G139" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H139" s="57" t="s">
@@ -46864,7 +46864,7 @@
       <c r="F140" s="55">
         <v>1</v>
       </c>
-      <c r="G140" s="69" t="s">
+      <c r="G140" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H140" s="57" t="s">
@@ -46890,7 +46890,7 @@
       <c r="F141" s="55">
         <v>0.26</v>
       </c>
-      <c r="G141" s="69" t="s">
+      <c r="G141" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H141" s="57" t="s">
@@ -46916,7 +46916,7 @@
       <c r="F142" s="55">
         <v>0.1</v>
       </c>
-      <c r="G142" s="69" t="s">
+      <c r="G142" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H142" s="57" t="s">
@@ -46942,7 +46942,7 @@
       <c r="F143" s="55">
         <v>0.06</v>
       </c>
-      <c r="G143" s="69" t="s">
+      <c r="G143" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H143" s="57" t="s">
@@ -46968,7 +46968,7 @@
       <c r="F144" s="55">
         <v>0.1</v>
       </c>
-      <c r="G144" s="69" t="s">
+      <c r="G144" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H144" s="57" t="s">
@@ -46994,7 +46994,7 @@
       <c r="F145" s="55">
         <v>0.08</v>
       </c>
-      <c r="G145" s="69" t="s">
+      <c r="G145" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H145" s="57" t="s">
@@ -47020,7 +47020,7 @@
       <c r="F146" s="55">
         <v>0.06</v>
       </c>
-      <c r="G146" s="69" t="s">
+      <c r="G146" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H146" s="57" t="s">
@@ -47042,7 +47042,7 @@
       <c r="F147" s="55">
         <v>1</v>
       </c>
-      <c r="G147" s="69" t="s">
+      <c r="G147" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H147" s="57" t="s">
@@ -47068,7 +47068,7 @@
       <c r="F148" s="55">
         <v>1.37</v>
       </c>
-      <c r="G148" s="69" t="s">
+      <c r="G148" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H148" s="57" t="s">
@@ -47094,7 +47094,7 @@
       <c r="F149" s="55">
         <v>0.4</v>
       </c>
-      <c r="G149" s="69" t="s">
+      <c r="G149" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H149" s="57" t="s">
@@ -47120,7 +47120,7 @@
       <c r="F150" s="55">
         <v>0.12</v>
       </c>
-      <c r="G150" s="69" t="s">
+      <c r="G150" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H150" s="57" t="s">
@@ -47146,7 +47146,7 @@
       <c r="F151" s="55">
         <v>0.1</v>
       </c>
-      <c r="G151" s="69" t="s">
+      <c r="G151" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H151" s="57" t="s">
@@ -47172,7 +47172,7 @@
       <c r="F152" s="55">
         <v>0.15</v>
       </c>
-      <c r="G152" s="69" t="s">
+      <c r="G152" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H152" s="57" t="s">
@@ -47198,7 +47198,7 @@
       <c r="F153" s="55">
         <v>0.6</v>
       </c>
-      <c r="G153" s="69" t="s">
+      <c r="G153" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H153" s="57" t="s">
@@ -47224,7 +47224,7 @@
       <c r="F154" s="55">
         <v>0.12</v>
       </c>
-      <c r="G154" s="69" t="s">
+      <c r="G154" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H154" s="57" t="s">
@@ -47250,7 +47250,7 @@
       <c r="F155" s="55">
         <v>0.06</v>
       </c>
-      <c r="G155" s="69" t="s">
+      <c r="G155" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H155" s="57" t="s">
@@ -47270,7 +47270,7 @@
         <v>635</v>
       </c>
       <c r="F156" s="55"/>
-      <c r="G156" s="69" t="s">
+      <c r="G156" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H156" s="57" t="s">
@@ -47292,7 +47292,7 @@
       <c r="F157" s="55">
         <v>1</v>
       </c>
-      <c r="G157" s="69" t="s">
+      <c r="G157" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H157" s="57" t="s">
@@ -47318,7 +47318,7 @@
       <c r="F158" s="55">
         <v>0.12</v>
       </c>
-      <c r="G158" s="69" t="s">
+      <c r="G158" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H158" s="57" t="s">
@@ -47344,7 +47344,7 @@
       <c r="F159" s="55">
         <v>0.12</v>
       </c>
-      <c r="G159" s="69" t="s">
+      <c r="G159" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H159" s="57" t="s">
@@ -47370,7 +47370,7 @@
       <c r="F160" s="55">
         <v>0.12</v>
       </c>
-      <c r="G160" s="69" t="s">
+      <c r="G160" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H160" s="57" t="s">
@@ -47396,7 +47396,7 @@
       <c r="F161" s="55">
         <v>0.12</v>
       </c>
-      <c r="G161" s="69" t="s">
+      <c r="G161" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H161" s="57" t="s">
@@ -47422,7 +47422,7 @@
       <c r="F162" s="55">
         <v>0.12</v>
       </c>
-      <c r="G162" s="69" t="s">
+      <c r="G162" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H162" s="57" t="s">
@@ -47448,7 +47448,7 @@
       <c r="F163" s="55">
         <v>0.12</v>
       </c>
-      <c r="G163" s="69" t="s">
+      <c r="G163" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H163" s="57" t="s">
@@ -47474,7 +47474,7 @@
       <c r="F164" s="55">
         <v>0.12</v>
       </c>
-      <c r="G164" s="69" t="s">
+      <c r="G164" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H164" s="57" t="s">
@@ -47500,7 +47500,7 @@
       <c r="F165" s="55">
         <v>0.12</v>
       </c>
-      <c r="G165" s="69" t="s">
+      <c r="G165" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H165" s="57" t="s">
@@ -47526,7 +47526,7 @@
       <c r="F166" s="55">
         <v>0.12</v>
       </c>
-      <c r="G166" s="69" t="s">
+      <c r="G166" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H166" s="57" t="s">
@@ -47552,7 +47552,7 @@
       <c r="F167" s="55">
         <v>0.12</v>
       </c>
-      <c r="G167" s="69" t="s">
+      <c r="G167" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H167" s="57" t="s">
@@ -47578,7 +47578,7 @@
       <c r="F168" s="55">
         <v>0.12</v>
       </c>
-      <c r="G168" s="69" t="s">
+      <c r="G168" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H168" s="57" t="s">
@@ -47604,7 +47604,7 @@
       <c r="F169" s="55">
         <v>0.12</v>
       </c>
-      <c r="G169" s="69" t="s">
+      <c r="G169" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H169" s="57" t="s">
@@ -47630,7 +47630,7 @@
       <c r="F170" s="55">
         <v>0.12</v>
       </c>
-      <c r="G170" s="69" t="s">
+      <c r="G170" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H170" s="57" t="s">
@@ -47656,7 +47656,7 @@
       <c r="F171" s="55">
         <v>0.12</v>
       </c>
-      <c r="G171" s="69" t="s">
+      <c r="G171" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H171" s="57" t="s">
@@ -47682,7 +47682,7 @@
       <c r="F172" s="55">
         <v>0.12</v>
       </c>
-      <c r="G172" s="69" t="s">
+      <c r="G172" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H172" s="57" t="s">
@@ -47708,7 +47708,7 @@
       <c r="F173" s="55">
         <v>0.12</v>
       </c>
-      <c r="G173" s="69" t="s">
+      <c r="G173" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H173" s="57" t="s">
@@ -47730,7 +47730,7 @@
       <c r="F174" s="55">
         <v>1</v>
       </c>
-      <c r="G174" s="69" t="s">
+      <c r="G174" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H174" s="57" t="s">
@@ -47756,7 +47756,7 @@
       <c r="F175" s="55">
         <v>0.12</v>
       </c>
-      <c r="G175" s="69" t="s">
+      <c r="G175" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H175" s="57" t="s">
@@ -47782,7 +47782,7 @@
       <c r="F176" s="55">
         <v>0.12</v>
       </c>
-      <c r="G176" s="69" t="s">
+      <c r="G176" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H176" s="57" t="s">
@@ -47808,7 +47808,7 @@
       <c r="F177" s="55">
         <v>0.12</v>
       </c>
-      <c r="G177" s="69" t="s">
+      <c r="G177" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H177" s="57" t="s">
@@ -47834,7 +47834,7 @@
       <c r="F178" s="55">
         <v>0.12</v>
       </c>
-      <c r="G178" s="69" t="s">
+      <c r="G178" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H178" s="57" t="s">
@@ -47860,7 +47860,7 @@
       <c r="F179" s="55">
         <v>0.12</v>
       </c>
-      <c r="G179" s="69" t="s">
+      <c r="G179" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H179" s="57" t="s">
@@ -47886,7 +47886,7 @@
       <c r="F180" s="55">
         <v>0.12</v>
       </c>
-      <c r="G180" s="69" t="s">
+      <c r="G180" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H180" s="57" t="s">
@@ -47912,7 +47912,7 @@
       <c r="F181" s="55">
         <v>0.12</v>
       </c>
-      <c r="G181" s="69" t="s">
+      <c r="G181" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H181" s="57" t="s">
@@ -47938,7 +47938,7 @@
       <c r="F182" s="55">
         <v>0.12</v>
       </c>
-      <c r="G182" s="69" t="s">
+      <c r="G182" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H182" s="57" t="s">
@@ -47964,7 +47964,7 @@
       <c r="F183" s="55">
         <v>0.12</v>
       </c>
-      <c r="G183" s="69" t="s">
+      <c r="G183" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H183" s="57" t="s">
@@ -47990,7 +47990,7 @@
       <c r="F184" s="55">
         <v>0.12</v>
       </c>
-      <c r="G184" s="69" t="s">
+      <c r="G184" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H184" s="57" t="s">
@@ -48016,7 +48016,7 @@
       <c r="F185" s="55">
         <v>0.12</v>
       </c>
-      <c r="G185" s="69" t="s">
+      <c r="G185" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H185" s="57" t="s">
@@ -48038,7 +48038,7 @@
       <c r="F186" s="55">
         <v>1</v>
       </c>
-      <c r="G186" s="69" t="s">
+      <c r="G186" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H186" s="57" t="s">
@@ -48064,7 +48064,7 @@
       <c r="F187" s="55">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G187" s="70" t="s">
+      <c r="G187" s="67" t="s">
         <v>648</v>
       </c>
       <c r="H187" s="57" t="s">
@@ -48090,7 +48090,7 @@
       <c r="F188" s="55">
         <v>0.3</v>
       </c>
-      <c r="G188" s="70" t="s">
+      <c r="G188" s="67" t="s">
         <v>648</v>
       </c>
       <c r="H188" s="57" t="s">
@@ -48116,7 +48116,7 @@
       <c r="F189" s="55">
         <v>0.06</v>
       </c>
-      <c r="G189" s="70" t="s">
+      <c r="G189" s="67" t="s">
         <v>648</v>
       </c>
       <c r="H189" s="57" t="s">
@@ -48142,7 +48142,7 @@
       <c r="F190" s="55">
         <v>0.2</v>
       </c>
-      <c r="G190" s="70" t="s">
+      <c r="G190" s="67" t="s">
         <v>648</v>
       </c>
       <c r="H190" s="57" t="s">
@@ -48168,7 +48168,7 @@
       <c r="F191" s="55">
         <v>0.04</v>
       </c>
-      <c r="G191" s="69" t="s">
+      <c r="G191" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H191" s="57" t="s">
@@ -48194,7 +48194,7 @@
       <c r="F192" s="55">
         <v>0.06</v>
       </c>
-      <c r="G192" s="69" t="s">
+      <c r="G192" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H192" s="57" t="s">
@@ -48220,7 +48220,7 @@
       <c r="F193" s="55">
         <v>0.96</v>
       </c>
-      <c r="G193" s="69" t="s">
+      <c r="G193" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H193" s="57" t="s">
@@ -48246,7 +48246,7 @@
       <c r="F194" s="55">
         <v>0.1</v>
       </c>
-      <c r="G194" s="69" t="s">
+      <c r="G194" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H194" s="57" t="s">
@@ -48272,7 +48272,7 @@
       <c r="F195" s="55">
         <v>0.06</v>
       </c>
-      <c r="G195" s="69" t="s">
+      <c r="G195" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H195" s="57" t="s">
@@ -48298,7 +48298,7 @@
       <c r="F196" s="55">
         <v>0.2</v>
       </c>
-      <c r="G196" s="69" t="s">
+      <c r="G196" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H196" s="57" t="s">
@@ -48324,7 +48324,7 @@
       <c r="F197" s="55">
         <v>0.6</v>
       </c>
-      <c r="G197" s="69" t="s">
+      <c r="G197" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H197" s="57" t="s">
@@ -48350,7 +48350,7 @@
       <c r="F198" s="55">
         <v>0.04</v>
       </c>
-      <c r="G198" s="69" t="s">
+      <c r="G198" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H198" s="57" t="s">
@@ -48376,7 +48376,7 @@
       <c r="F199" s="55">
         <v>0.06</v>
       </c>
-      <c r="G199" s="69" t="s">
+      <c r="G199" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H199" s="57" t="s">
@@ -48402,7 +48402,7 @@
       <c r="F200" s="55">
         <v>0.04</v>
       </c>
-      <c r="G200" s="69" t="s">
+      <c r="G200" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H200" s="57" t="s">
@@ -48428,7 +48428,7 @@
       <c r="F201" s="55">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G201" s="69" t="s">
+      <c r="G201" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H201" s="57" t="s">
@@ -48454,7 +48454,7 @@
       <c r="F202" s="55">
         <v>0.3</v>
       </c>
-      <c r="G202" s="69" t="s">
+      <c r="G202" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H202" s="57" t="s">
@@ -48480,7 +48480,7 @@
       <c r="F203" s="55">
         <v>0.06</v>
       </c>
-      <c r="G203" s="69" t="s">
+      <c r="G203" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H203" s="57" t="s">
@@ -48506,7 +48506,7 @@
       <c r="F204" s="55">
         <v>0.2</v>
       </c>
-      <c r="G204" s="69" t="s">
+      <c r="G204" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H204" s="57" t="s">
@@ -48532,7 +48532,7 @@
       <c r="F205" s="55">
         <v>0.04</v>
       </c>
-      <c r="G205" s="69" t="s">
+      <c r="G205" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H205" s="57" t="s">
@@ -48558,7 +48558,7 @@
       <c r="F206" s="55">
         <v>0.06</v>
       </c>
-      <c r="G206" s="69" t="s">
+      <c r="G206" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H206" s="57" t="s">
@@ -48580,7 +48580,7 @@
       <c r="F207" s="55">
         <v>1</v>
       </c>
-      <c r="G207" s="69" t="s">
+      <c r="G207" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H207" s="57" t="s">
@@ -48602,7 +48602,7 @@
       <c r="F208" s="55">
         <v>1</v>
       </c>
-      <c r="G208" s="69" t="s">
+      <c r="G208" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H208" s="57" t="s">
@@ -48624,7 +48624,7 @@
       <c r="F209" s="55">
         <v>1</v>
       </c>
-      <c r="G209" s="69" t="s">
+      <c r="G209" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H209" s="57" t="s">
@@ -48650,7 +48650,7 @@
       <c r="F210" s="55">
         <v>0.4</v>
       </c>
-      <c r="G210" s="69" t="s">
+      <c r="G210" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H210" s="57" t="s">
@@ -48676,7 +48676,7 @@
       <c r="F211" s="55">
         <v>0.3</v>
       </c>
-      <c r="G211" s="69" t="s">
+      <c r="G211" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H211" s="57" t="s">
@@ -48702,7 +48702,7 @@
       <c r="F212" s="55">
         <v>0.1</v>
       </c>
-      <c r="G212" s="69" t="s">
+      <c r="G212" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H212" s="57" t="s">
@@ -48728,7 +48728,7 @@
       <c r="F213" s="55">
         <v>0.08</v>
       </c>
-      <c r="G213" s="69" t="s">
+      <c r="G213" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H213" s="57" t="s">
@@ -48754,7 +48754,7 @@
       <c r="F214" s="55">
         <v>0.06</v>
       </c>
-      <c r="G214" s="69" t="s">
+      <c r="G214" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H214" s="57" t="s">
@@ -48780,7 +48780,7 @@
       <c r="F215" s="55">
         <v>0.3</v>
       </c>
-      <c r="G215" s="69" t="s">
+      <c r="G215" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H215" s="57" t="s">
@@ -48802,7 +48802,7 @@
       <c r="F216" s="55">
         <v>1</v>
       </c>
-      <c r="G216" s="69" t="s">
+      <c r="G216" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H216" s="57" t="s">
@@ -48824,7 +48824,7 @@
       <c r="F217" s="55">
         <v>1</v>
       </c>
-      <c r="G217" s="69" t="s">
+      <c r="G217" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H217" s="57" t="s">
@@ -48846,7 +48846,7 @@
       <c r="F218" s="55">
         <v>1</v>
       </c>
-      <c r="G218" s="69" t="s">
+      <c r="G218" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H218" s="57" t="s">
@@ -48868,7 +48868,7 @@
       <c r="F219" s="55">
         <v>1</v>
       </c>
-      <c r="G219" s="69" t="s">
+      <c r="G219" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H219" s="57" t="s">
@@ -48894,7 +48894,7 @@
       <c r="F220" s="55">
         <v>1</v>
       </c>
-      <c r="G220" s="69" t="s">
+      <c r="G220" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H220" s="57" t="s">
@@ -48920,7 +48920,7 @@
       <c r="F221" s="55">
         <v>0.2</v>
       </c>
-      <c r="G221" s="69" t="s">
+      <c r="G221" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H221" s="57" t="s">
@@ -48946,7 +48946,7 @@
       <c r="F222" s="55">
         <v>0.2</v>
       </c>
-      <c r="G222" s="69" t="s">
+      <c r="G222" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H222" s="57" t="s">
@@ -48972,7 +48972,7 @@
       <c r="F223" s="55">
         <v>0.6</v>
       </c>
-      <c r="G223" s="69" t="s">
+      <c r="G223" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H223" s="57" t="s">
@@ -48998,7 +48998,7 @@
       <c r="F224" s="55">
         <v>0.08</v>
       </c>
-      <c r="G224" s="69" t="s">
+      <c r="G224" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H224" s="57" t="s">
@@ -49024,7 +49024,7 @@
       <c r="F225" s="55">
         <v>0.18</v>
       </c>
-      <c r="G225" s="69" t="s">
+      <c r="G225" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H225" s="57" t="s">
@@ -49050,7 +49050,7 @@
       <c r="F226" s="55">
         <v>0.8</v>
       </c>
-      <c r="G226" s="69" t="s">
+      <c r="G226" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H226" s="57" t="s">
@@ -49076,7 +49076,7 @@
       <c r="F227" s="55">
         <v>0.1</v>
       </c>
-      <c r="G227" s="69" t="s">
+      <c r="G227" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H227" s="57" t="s">
@@ -49102,7 +49102,7 @@
       <c r="F228" s="55">
         <v>0.1</v>
       </c>
-      <c r="G228" s="69" t="s">
+      <c r="G228" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H228" s="57" t="s">
@@ -49128,7 +49128,7 @@
       <c r="F229" s="55">
         <v>0.6</v>
       </c>
-      <c r="G229" s="69" t="s">
+      <c r="G229" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H229" s="57" t="s">
@@ -49154,7 +49154,7 @@
       <c r="F230" s="55">
         <v>0.08</v>
       </c>
-      <c r="G230" s="69" t="s">
+      <c r="G230" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H230" s="57" t="s">
@@ -49180,7 +49180,7 @@
       <c r="F231" s="55">
         <v>0.12</v>
       </c>
-      <c r="G231" s="69" t="s">
+      <c r="G231" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H231" s="57" t="s">
@@ -49206,7 +49206,7 @@
       <c r="F232" s="55">
         <v>0.8</v>
       </c>
-      <c r="G232" s="69" t="s">
+      <c r="G232" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H232" s="57" t="s">
@@ -49232,7 +49232,7 @@
       <c r="F233" s="55">
         <v>0.1</v>
       </c>
-      <c r="G233" s="69" t="s">
+      <c r="G233" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H233" s="57" t="s">
@@ -49258,7 +49258,7 @@
       <c r="F234" s="55">
         <v>0.1</v>
       </c>
-      <c r="G234" s="69" t="s">
+      <c r="G234" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H234" s="57" t="s">
@@ -49284,7 +49284,7 @@
       <c r="F235" s="55">
         <v>0.6</v>
       </c>
-      <c r="G235" s="69" t="s">
+      <c r="G235" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H235" s="57" t="s">
@@ -49310,7 +49310,7 @@
       <c r="F236" s="55">
         <v>0.08</v>
       </c>
-      <c r="G236" s="69" t="s">
+      <c r="G236" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H236" s="57" t="s">
@@ -49336,7 +49336,7 @@
       <c r="F237" s="55">
         <v>0.06</v>
       </c>
-      <c r="G237" s="69" t="s">
+      <c r="G237" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H237" s="57" t="s">
@@ -49362,7 +49362,7 @@
       <c r="F238" s="55">
         <v>0.6</v>
       </c>
-      <c r="G238" s="69" t="s">
+      <c r="G238" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H238" s="57" t="s">
@@ -49388,7 +49388,7 @@
       <c r="F239" s="55">
         <v>0.6</v>
       </c>
-      <c r="G239" s="69" t="s">
+      <c r="G239" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H239" s="57" t="s">
@@ -49414,7 +49414,7 @@
       <c r="F240" s="55">
         <v>0.08</v>
       </c>
-      <c r="G240" s="69" t="s">
+      <c r="G240" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H240" s="57" t="s">
@@ -49440,7 +49440,7 @@
       <c r="F241" s="55">
         <v>0.06</v>
       </c>
-      <c r="G241" s="69" t="s">
+      <c r="G241" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H241" s="57" t="s">
@@ -49466,7 +49466,7 @@
       <c r="F242" s="55">
         <v>0.6</v>
       </c>
-      <c r="G242" s="69" t="s">
+      <c r="G242" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H242" s="57" t="s">
@@ -49492,7 +49492,7 @@
       <c r="F243" s="55">
         <v>0.6</v>
       </c>
-      <c r="G243" s="69" t="s">
+      <c r="G243" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H243" s="57" t="s">
@@ -49518,7 +49518,7 @@
       <c r="F244" s="55">
         <v>0.08</v>
       </c>
-      <c r="G244" s="69" t="s">
+      <c r="G244" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H244" s="57" t="s">
@@ -49544,7 +49544,7 @@
       <c r="F245" s="55">
         <v>0.06</v>
       </c>
-      <c r="G245" s="69" t="s">
+      <c r="G245" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H245" s="57" t="s">
@@ -49566,7 +49566,7 @@
       <c r="F246" s="55">
         <v>1</v>
       </c>
-      <c r="G246" s="69" t="s">
+      <c r="G246" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H246" s="57" t="s">
@@ -49588,7 +49588,7 @@
       <c r="F247" s="55">
         <v>1</v>
       </c>
-      <c r="G247" s="69" t="s">
+      <c r="G247" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H247" s="57" t="s">
@@ -49610,7 +49610,7 @@
       <c r="F248" s="55">
         <v>1</v>
       </c>
-      <c r="G248" s="69" t="s">
+      <c r="G248" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H248" s="57" t="s">
@@ -49632,7 +49632,7 @@
       <c r="F249" s="55">
         <v>1</v>
       </c>
-      <c r="G249" s="69" t="s">
+      <c r="G249" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H249" s="57" t="s">
@@ -49654,7 +49654,7 @@
       <c r="F250" s="55">
         <v>1</v>
       </c>
-      <c r="G250" s="69" t="s">
+      <c r="G250" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H250" s="57" t="s">
@@ -49680,7 +49680,7 @@
       <c r="F251" s="55">
         <v>0.32</v>
       </c>
-      <c r="G251" s="69" t="s">
+      <c r="G251" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H251" s="57" t="s">
@@ -49706,7 +49706,7 @@
       <c r="F252" s="55">
         <v>0.1</v>
       </c>
-      <c r="G252" s="69" t="s">
+      <c r="G252" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H252" s="57" t="s">
@@ -49732,7 +49732,7 @@
       <c r="F253" s="55">
         <v>0.12</v>
       </c>
-      <c r="G253" s="69" t="s">
+      <c r="G253" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H253" s="57" t="s">
@@ -49758,7 +49758,7 @@
       <c r="F254" s="55">
         <v>0.1</v>
       </c>
-      <c r="G254" s="69" t="s">
+      <c r="G254" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H254" s="57" t="s">
@@ -49784,7 +49784,7 @@
       <c r="F255" s="55">
         <v>0.04</v>
       </c>
-      <c r="G255" s="69" t="s">
+      <c r="G255" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H255" s="57" t="s">
@@ -49810,7 +49810,7 @@
       <c r="F256" s="55">
         <v>0.06</v>
       </c>
-      <c r="G256" s="69" t="s">
+      <c r="G256" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H256" s="57" t="s">
@@ -49836,7 +49836,7 @@
       <c r="F257" s="55">
         <v>0.26</v>
       </c>
-      <c r="G257" s="69" t="s">
+      <c r="G257" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H257" s="57" t="s">
@@ -49862,7 +49862,7 @@
       <c r="F258" s="55">
         <v>0.1</v>
       </c>
-      <c r="G258" s="69" t="s">
+      <c r="G258" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H258" s="57" t="s">
@@ -49888,7 +49888,7 @@
       <c r="F259" s="55">
         <v>0.06</v>
       </c>
-      <c r="G259" s="69" t="s">
+      <c r="G259" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H259" s="57" t="s">
@@ -49914,7 +49914,7 @@
       <c r="F260" s="55">
         <v>0.1</v>
       </c>
-      <c r="G260" s="69" t="s">
+      <c r="G260" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H260" s="57" t="s">
@@ -49940,7 +49940,7 @@
       <c r="F261" s="55">
         <v>0.04</v>
       </c>
-      <c r="G261" s="69" t="s">
+      <c r="G261" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H261" s="57" t="s">
@@ -49966,7 +49966,7 @@
       <c r="F262" s="55">
         <v>0.06</v>
       </c>
-      <c r="G262" s="69" t="s">
+      <c r="G262" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H262" s="57" t="s">
@@ -49992,7 +49992,7 @@
       <c r="F263" s="55">
         <v>0.26</v>
       </c>
-      <c r="G263" s="69" t="s">
+      <c r="G263" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H263" s="57" t="s">
@@ -50018,7 +50018,7 @@
       <c r="F264" s="55">
         <v>0.1</v>
       </c>
-      <c r="G264" s="69" t="s">
+      <c r="G264" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H264" s="57" t="s">
@@ -50044,7 +50044,7 @@
       <c r="F265" s="55">
         <v>0.06</v>
       </c>
-      <c r="G265" s="69" t="s">
+      <c r="G265" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H265" s="57" t="s">
@@ -50070,7 +50070,7 @@
       <c r="F266" s="55">
         <v>0.1</v>
       </c>
-      <c r="G266" s="69" t="s">
+      <c r="G266" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H266" s="57" t="s">
@@ -50096,7 +50096,7 @@
       <c r="F267" s="55">
         <v>0.04</v>
       </c>
-      <c r="G267" s="69" t="s">
+      <c r="G267" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H267" s="57" t="s">
@@ -50122,7 +50122,7 @@
       <c r="F268" s="55">
         <v>0.06</v>
       </c>
-      <c r="G268" s="69" t="s">
+      <c r="G268" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H268" s="57" t="s">
@@ -50148,7 +50148,7 @@
       <c r="F269" s="55">
         <v>0.26</v>
       </c>
-      <c r="G269" s="69" t="s">
+      <c r="G269" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H269" s="57" t="s">
@@ -50174,7 +50174,7 @@
       <c r="F270" s="55">
         <v>0.1</v>
       </c>
-      <c r="G270" s="69" t="s">
+      <c r="G270" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H270" s="57" t="s">
@@ -50200,7 +50200,7 @@
       <c r="F271" s="55">
         <v>0.06</v>
       </c>
-      <c r="G271" s="69" t="s">
+      <c r="G271" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H271" s="57" t="s">
@@ -50226,7 +50226,7 @@
       <c r="F272" s="55">
         <v>0.1</v>
       </c>
-      <c r="G272" s="69" t="s">
+      <c r="G272" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H272" s="57" t="s">
@@ -50252,7 +50252,7 @@
       <c r="F273" s="55">
         <v>0.04</v>
       </c>
-      <c r="G273" s="69" t="s">
+      <c r="G273" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H273" s="57" t="s">
@@ -50278,7 +50278,7 @@
       <c r="F274" s="55">
         <v>0.06</v>
       </c>
-      <c r="G274" s="69" t="s">
+      <c r="G274" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H274" s="57" t="s">
@@ -50300,7 +50300,7 @@
       <c r="F275" s="55">
         <v>1</v>
       </c>
-      <c r="G275" s="69" t="s">
+      <c r="G275" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H275" s="57" t="s">
@@ -50326,7 +50326,7 @@
       <c r="F276" s="55">
         <v>0.26</v>
       </c>
-      <c r="G276" s="69" t="s">
+      <c r="G276" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H276" s="57" t="s">
@@ -50352,7 +50352,7 @@
       <c r="F277" s="55">
         <v>0.1</v>
       </c>
-      <c r="G277" s="69" t="s">
+      <c r="G277" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H277" s="57" t="s">
@@ -50378,7 +50378,7 @@
       <c r="F278" s="55">
         <v>0.06</v>
       </c>
-      <c r="G278" s="69" t="s">
+      <c r="G278" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H278" s="57" t="s">
@@ -50404,7 +50404,7 @@
       <c r="F279" s="55">
         <v>0.1</v>
       </c>
-      <c r="G279" s="69" t="s">
+      <c r="G279" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H279" s="57" t="s">
@@ -50430,7 +50430,7 @@
       <c r="F280" s="55">
         <v>0.04</v>
       </c>
-      <c r="G280" s="69" t="s">
+      <c r="G280" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H280" s="57" t="s">
@@ -50456,7 +50456,7 @@
       <c r="F281" s="55">
         <v>0.06</v>
       </c>
-      <c r="G281" s="69" t="s">
+      <c r="G281" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H281" s="57" t="s">
@@ -50482,7 +50482,7 @@
       <c r="F282" s="55">
         <v>0.26</v>
       </c>
-      <c r="G282" s="69" t="s">
+      <c r="G282" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H282" s="57" t="s">
@@ -50508,7 +50508,7 @@
       <c r="F283" s="55">
         <v>0.1</v>
       </c>
-      <c r="G283" s="69" t="s">
+      <c r="G283" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H283" s="57" t="s">
@@ -50534,7 +50534,7 @@
       <c r="F284" s="55">
         <v>0.06</v>
       </c>
-      <c r="G284" s="69" t="s">
+      <c r="G284" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H284" s="57" t="s">
@@ -50560,7 +50560,7 @@
       <c r="F285" s="55">
         <v>0.1</v>
       </c>
-      <c r="G285" s="69" t="s">
+      <c r="G285" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H285" s="57" t="s">
@@ -50586,7 +50586,7 @@
       <c r="F286" s="55">
         <v>0.04</v>
       </c>
-      <c r="G286" s="69" t="s">
+      <c r="G286" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H286" s="57" t="s">
@@ -50612,7 +50612,7 @@
       <c r="F287" s="55">
         <v>0.06</v>
       </c>
-      <c r="G287" s="69" t="s">
+      <c r="G287" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H287" s="57" t="s">
@@ -50638,7 +50638,7 @@
       <c r="F288" s="55">
         <v>0.26</v>
       </c>
-      <c r="G288" s="69" t="s">
+      <c r="G288" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H288" s="57" t="s">
@@ -50664,7 +50664,7 @@
       <c r="F289" s="55">
         <v>0.1</v>
       </c>
-      <c r="G289" s="69" t="s">
+      <c r="G289" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H289" s="57" t="s">
@@ -50690,7 +50690,7 @@
       <c r="F290" s="55">
         <v>0.06</v>
       </c>
-      <c r="G290" s="69" t="s">
+      <c r="G290" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H290" s="57" t="s">
@@ -50716,7 +50716,7 @@
       <c r="F291" s="55">
         <v>0.1</v>
       </c>
-      <c r="G291" s="69" t="s">
+      <c r="G291" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H291" s="57" t="s">
@@ -50742,7 +50742,7 @@
       <c r="F292" s="55">
         <v>0.04</v>
       </c>
-      <c r="G292" s="69" t="s">
+      <c r="G292" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H292" s="57" t="s">
@@ -50768,7 +50768,7 @@
       <c r="F293" s="55">
         <v>0.06</v>
       </c>
-      <c r="G293" s="69" t="s">
+      <c r="G293" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H293" s="57" t="s">
@@ -50790,7 +50790,7 @@
       <c r="F294" s="55">
         <v>1</v>
       </c>
-      <c r="G294" s="69" t="s">
+      <c r="G294" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H294" s="57" t="s">
@@ -50812,7 +50812,7 @@
       <c r="F295" s="55">
         <v>1</v>
       </c>
-      <c r="G295" s="69" t="s">
+      <c r="G295" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H295" s="57" t="s">
@@ -50838,7 +50838,7 @@
       <c r="F296" s="55">
         <v>0.36</v>
       </c>
-      <c r="G296" s="69" t="s">
+      <c r="G296" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H296" s="57" t="s">
@@ -50864,7 +50864,7 @@
       <c r="F297" s="55">
         <v>0.2</v>
       </c>
-      <c r="G297" s="69" t="s">
+      <c r="G297" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H297" s="57" t="s">
@@ -50890,7 +50890,7 @@
       <c r="F298" s="55">
         <v>0.06</v>
       </c>
-      <c r="G298" s="69" t="s">
+      <c r="G298" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H298" s="57" t="s">
@@ -50916,7 +50916,7 @@
       <c r="F299" s="55">
         <v>0.1</v>
       </c>
-      <c r="G299" s="69" t="s">
+      <c r="G299" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H299" s="57" t="s">
@@ -50942,7 +50942,7 @@
       <c r="F300" s="55">
         <v>0.04</v>
       </c>
-      <c r="G300" s="69" t="s">
+      <c r="G300" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H300" s="57" t="s">
@@ -50968,7 +50968,7 @@
       <c r="F301" s="55">
         <v>0.12</v>
       </c>
-      <c r="G301" s="69" t="s">
+      <c r="G301" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H301" s="57" t="s">
@@ -50988,7 +50988,7 @@
         <v>635</v>
       </c>
       <c r="F302" s="55"/>
-      <c r="G302" s="69" t="s">
+      <c r="G302" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H302" s="57" t="s">
@@ -51010,7 +51010,7 @@
       <c r="F303" s="55">
         <v>1</v>
       </c>
-      <c r="G303" s="69" t="s">
+      <c r="G303" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H303" s="57" t="s">
@@ -51032,7 +51032,7 @@
       <c r="F304" s="55">
         <v>1</v>
       </c>
-      <c r="G304" s="69" t="s">
+      <c r="G304" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H304" s="57" t="s">
@@ -51054,7 +51054,7 @@
       <c r="F305" s="55">
         <v>1</v>
       </c>
-      <c r="G305" s="69" t="s">
+      <c r="G305" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H305" s="57" t="s">
@@ -51076,7 +51076,7 @@
       <c r="F306" s="55">
         <v>1</v>
       </c>
-      <c r="G306" s="69" t="s">
+      <c r="G306" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H306" s="57" t="s">
@@ -51098,7 +51098,7 @@
       <c r="F307" s="55">
         <v>1</v>
       </c>
-      <c r="G307" s="69" t="s">
+      <c r="G307" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H307" s="57" t="s">
@@ -51124,7 +51124,7 @@
       <c r="F308" s="55">
         <v>0.36</v>
       </c>
-      <c r="G308" s="69" t="s">
+      <c r="G308" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H308" s="57" t="s">
@@ -51150,7 +51150,7 @@
       <c r="F309" s="55">
         <v>0.2</v>
       </c>
-      <c r="G309" s="69" t="s">
+      <c r="G309" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H309" s="57" t="s">
@@ -51176,7 +51176,7 @@
       <c r="F310" s="55">
         <v>0.1</v>
       </c>
-      <c r="G310" s="69" t="s">
+      <c r="G310" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H310" s="57" t="s">
@@ -51202,7 +51202,7 @@
       <c r="F311" s="55">
         <v>0.06</v>
       </c>
-      <c r="G311" s="69" t="s">
+      <c r="G311" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H311" s="57" t="s">
@@ -51228,7 +51228,7 @@
       <c r="F312" s="55">
         <v>0.04</v>
       </c>
-      <c r="G312" s="69" t="s">
+      <c r="G312" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H312" s="57" t="s">
@@ -51254,7 +51254,7 @@
       <c r="F313" s="55">
         <v>0.06</v>
       </c>
-      <c r="G313" s="69" t="s">
+      <c r="G313" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H313" s="57" t="s">
@@ -51276,7 +51276,7 @@
       <c r="F314" s="55">
         <v>1</v>
       </c>
-      <c r="G314" s="69" t="s">
+      <c r="G314" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H314" s="57" t="s">
@@ -51298,7 +51298,7 @@
       <c r="F315" s="55">
         <v>1</v>
       </c>
-      <c r="G315" s="69" t="s">
+      <c r="G315" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H315" s="57" t="s">
@@ -51320,7 +51320,7 @@
       <c r="F316" s="55">
         <v>1</v>
       </c>
-      <c r="G316" s="69" t="s">
+      <c r="G316" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H316" s="57" t="s">
@@ -51342,7 +51342,7 @@
       <c r="F317" s="55">
         <v>1</v>
       </c>
-      <c r="G317" s="69" t="s">
+      <c r="G317" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H317" s="57" t="s">
@@ -51364,7 +51364,7 @@
       <c r="F318" s="55">
         <v>1</v>
       </c>
-      <c r="G318" s="69" t="s">
+      <c r="G318" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H318" s="57" t="s">
@@ -51386,7 +51386,7 @@
       <c r="F319" s="55">
         <v>1</v>
       </c>
-      <c r="G319" s="69" t="s">
+      <c r="G319" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H319" s="57" t="s">
@@ -51408,7 +51408,7 @@
       <c r="F320" s="55">
         <v>1</v>
       </c>
-      <c r="G320" s="69" t="s">
+      <c r="G320" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H320" s="57" t="s">
@@ -51430,7 +51430,7 @@
       <c r="F321" s="55">
         <v>1</v>
       </c>
-      <c r="G321" s="69" t="s">
+      <c r="G321" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H321" s="57" t="s">
@@ -51452,7 +51452,7 @@
       <c r="F322" s="55">
         <v>1</v>
       </c>
-      <c r="G322" s="69" t="s">
+      <c r="G322" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H322" s="57" t="s">
@@ -51474,7 +51474,7 @@
       <c r="F323" s="55">
         <v>1</v>
       </c>
-      <c r="G323" s="69" t="s">
+      <c r="G323" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H323" s="57" t="s">
@@ -51496,7 +51496,7 @@
       <c r="F324" s="55">
         <v>1</v>
       </c>
-      <c r="G324" s="69" t="s">
+      <c r="G324" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H324" s="57" t="s">
@@ -51518,7 +51518,7 @@
       <c r="F325" s="55">
         <v>1</v>
       </c>
-      <c r="G325" s="69" t="s">
+      <c r="G325" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H325" s="57" t="s">
@@ -51540,7 +51540,7 @@
       <c r="F326" s="55">
         <v>1</v>
       </c>
-      <c r="G326" s="69" t="s">
+      <c r="G326" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H326" s="57" t="s">
@@ -51560,7 +51560,7 @@
         <v>84</v>
       </c>
       <c r="F327" s="55"/>
-      <c r="G327" s="69" t="s">
+      <c r="G327" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H327" s="57" t="s">
@@ -51582,7 +51582,7 @@
       <c r="F328" s="55">
         <v>1</v>
       </c>
-      <c r="G328" s="69" t="s">
+      <c r="G328" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H328" s="57" t="s">
@@ -51604,7 +51604,7 @@
       <c r="F329" s="55">
         <v>1</v>
       </c>
-      <c r="G329" s="69" t="s">
+      <c r="G329" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H329" s="57" t="s">
@@ -51630,7 +51630,7 @@
       <c r="F330" s="55">
         <v>0.32</v>
       </c>
-      <c r="G330" s="69" t="s">
+      <c r="G330" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H330" s="57" t="s">
@@ -51656,7 +51656,7 @@
       <c r="F331" s="55">
         <v>0.1</v>
       </c>
-      <c r="G331" s="69" t="s">
+      <c r="G331" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H331" s="57" t="s">
@@ -51682,7 +51682,7 @@
       <c r="F332" s="55">
         <v>0.12</v>
       </c>
-      <c r="G332" s="69" t="s">
+      <c r="G332" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H332" s="57" t="s">
@@ -51708,7 +51708,7 @@
       <c r="F333" s="55">
         <v>0.1</v>
       </c>
-      <c r="G333" s="69" t="s">
+      <c r="G333" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H333" s="57" t="s">
@@ -51734,7 +51734,7 @@
       <c r="F334" s="55">
         <v>0.04</v>
       </c>
-      <c r="G334" s="69" t="s">
+      <c r="G334" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H334" s="57" t="s">
@@ -51760,7 +51760,7 @@
       <c r="F335" s="55">
         <v>0.06</v>
       </c>
-      <c r="G335" s="69" t="s">
+      <c r="G335" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H335" s="57" t="s">
@@ -51782,7 +51782,7 @@
       <c r="F336" s="55">
         <v>1</v>
       </c>
-      <c r="G336" s="69" t="s">
+      <c r="G336" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H336" s="57" t="s">
@@ -51804,7 +51804,7 @@
       <c r="F337" s="55">
         <v>1</v>
       </c>
-      <c r="G337" s="69" t="s">
+      <c r="G337" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H337" s="57" t="s">
@@ -51826,7 +51826,7 @@
       <c r="F338" s="55">
         <v>1</v>
       </c>
-      <c r="G338" s="69" t="s">
+      <c r="G338" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H338" s="57" t="s">
@@ -51852,7 +51852,7 @@
       <c r="F339" s="55">
         <v>0.36</v>
       </c>
-      <c r="G339" s="69" t="s">
+      <c r="G339" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H339" s="57" t="s">
@@ -51878,7 +51878,7 @@
       <c r="F340" s="55">
         <v>0.1</v>
       </c>
-      <c r="G340" s="69" t="s">
+      <c r="G340" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H340" s="57" t="s">
@@ -51904,7 +51904,7 @@
       <c r="F341" s="55">
         <v>0.06</v>
       </c>
-      <c r="G341" s="69" t="s">
+      <c r="G341" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H341" s="57" t="s">
@@ -51930,7 +51930,7 @@
       <c r="F342" s="55">
         <v>0.2</v>
       </c>
-      <c r="G342" s="69" t="s">
+      <c r="G342" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H342" s="57" t="s">
@@ -51956,7 +51956,7 @@
       <c r="F343" s="55">
         <v>0.04</v>
       </c>
-      <c r="G343" s="69" t="s">
+      <c r="G343" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H343" s="57" t="s">
@@ -51982,7 +51982,7 @@
       <c r="F344" s="55">
         <v>0.12</v>
       </c>
-      <c r="G344" s="69" t="s">
+      <c r="G344" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H344" s="57" t="s">
@@ -52008,7 +52008,7 @@
       <c r="F345" s="55">
         <v>0.26</v>
       </c>
-      <c r="G345" s="69" t="s">
+      <c r="G345" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H345" s="57" t="s">
@@ -52034,7 +52034,7 @@
       <c r="F346" s="55">
         <v>0.1</v>
       </c>
-      <c r="G346" s="69" t="s">
+      <c r="G346" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H346" s="57" t="s">
@@ -52060,7 +52060,7 @@
       <c r="F347" s="55">
         <v>0.06</v>
       </c>
-      <c r="G347" s="69" t="s">
+      <c r="G347" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H347" s="57" t="s">
@@ -52086,7 +52086,7 @@
       <c r="F348" s="55">
         <v>0.1</v>
       </c>
-      <c r="G348" s="69" t="s">
+      <c r="G348" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H348" s="57" t="s">
@@ -52112,7 +52112,7 @@
       <c r="F349" s="55">
         <v>0.04</v>
       </c>
-      <c r="G349" s="69" t="s">
+      <c r="G349" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H349" s="57" t="s">
@@ -52138,7 +52138,7 @@
       <c r="F350" s="55">
         <v>0.06</v>
       </c>
-      <c r="G350" s="69" t="s">
+      <c r="G350" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H350" s="57" t="s">
@@ -52160,7 +52160,7 @@
       <c r="F351" s="55">
         <v>1</v>
       </c>
-      <c r="G351" s="69" t="s">
+      <c r="G351" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H351" s="57" t="s">
@@ -52182,7 +52182,7 @@
       <c r="F352" s="55">
         <v>1</v>
       </c>
-      <c r="G352" s="69" t="s">
+      <c r="G352" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H352" s="57" t="s">
@@ -52204,7 +52204,7 @@
       <c r="F353" s="55">
         <v>1</v>
       </c>
-      <c r="G353" s="69" t="s">
+      <c r="G353" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H353" s="57" t="s">
@@ -52226,7 +52226,7 @@
       <c r="F354" s="55">
         <v>1</v>
       </c>
-      <c r="G354" s="69" t="s">
+      <c r="G354" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H354" s="57" t="s">
@@ -52248,7 +52248,7 @@
       <c r="F355" s="55">
         <v>1</v>
       </c>
-      <c r="G355" s="69" t="s">
+      <c r="G355" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H355" s="57" t="s">
@@ -52274,7 +52274,7 @@
       <c r="F356" s="55">
         <v>0.9</v>
       </c>
-      <c r="G356" s="70" t="s">
+      <c r="G356" s="67" t="s">
         <v>648</v>
       </c>
       <c r="H356" s="57" t="s">
@@ -52300,7 +52300,7 @@
       <c r="F357" s="55">
         <v>0.4</v>
       </c>
-      <c r="G357" s="70" t="s">
+      <c r="G357" s="67" t="s">
         <v>648</v>
       </c>
       <c r="H357" s="57" t="s">
@@ -52326,7 +52326,7 @@
       <c r="F358" s="55">
         <v>0.18</v>
       </c>
-      <c r="G358" s="70" t="s">
+      <c r="G358" s="67" t="s">
         <v>648</v>
       </c>
       <c r="H358" s="57" t="s">
@@ -52352,7 +52352,7 @@
       <c r="F359" s="55">
         <v>0.2</v>
       </c>
-      <c r="G359" s="70" t="s">
+      <c r="G359" s="67" t="s">
         <v>648</v>
       </c>
       <c r="H359" s="57" t="s">
@@ -52378,7 +52378,7 @@
       <c r="F360" s="55">
         <v>0.12</v>
       </c>
-      <c r="G360" s="70" t="s">
+      <c r="G360" s="67" t="s">
         <v>648</v>
       </c>
       <c r="H360" s="57" t="s">
@@ -52404,7 +52404,7 @@
       <c r="F361" s="55">
         <v>0.08</v>
       </c>
-      <c r="G361" s="69" t="s">
+      <c r="G361" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H361" s="57" t="s">
@@ -52430,7 +52430,7 @@
       <c r="F362" s="55">
         <v>0.06</v>
       </c>
-      <c r="G362" s="69" t="s">
+      <c r="G362" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H362" s="57" t="s">
@@ -52456,7 +52456,7 @@
       <c r="F363" s="55">
         <v>0.1</v>
       </c>
-      <c r="G363" s="69" t="s">
+      <c r="G363" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H363" s="57" t="s">
@@ -52482,7 +52482,7 @@
       <c r="F364" s="56">
         <v>1.6</v>
       </c>
-      <c r="G364" s="69" t="s">
+      <c r="G364" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H364" s="57" t="s">
@@ -52508,7 +52508,7 @@
       <c r="F365" s="55">
         <v>0.2</v>
       </c>
-      <c r="G365" s="69" t="s">
+      <c r="G365" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H365" s="57" t="s">
@@ -52534,7 +52534,7 @@
       <c r="F366" s="55">
         <v>0.18</v>
       </c>
-      <c r="G366" s="69" t="s">
+      <c r="G366" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H366" s="57" t="s">
@@ -52560,7 +52560,7 @@
       <c r="F367" s="55">
         <v>0.2</v>
       </c>
-      <c r="G367" s="69" t="s">
+      <c r="G367" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H367" s="57" t="s">
@@ -52586,7 +52586,7 @@
       <c r="F368" s="55">
         <v>0.12</v>
       </c>
-      <c r="G368" s="69" t="s">
+      <c r="G368" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H368" s="57" t="s">
@@ -52612,7 +52612,7 @@
       <c r="F369" s="55">
         <v>0.3</v>
       </c>
-      <c r="G369" s="69" t="s">
+      <c r="G369" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H369" s="57" t="s">
@@ -52638,7 +52638,7 @@
       <c r="F370" s="55">
         <v>0.6</v>
       </c>
-      <c r="G370" s="69" t="s">
+      <c r="G370" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H370" s="57" t="s">
@@ -52664,7 +52664,7 @@
       <c r="F371" s="55">
         <v>0.08</v>
       </c>
-      <c r="G371" s="69" t="s">
+      <c r="G371" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H371" s="57" t="s">
@@ -52690,7 +52690,7 @@
       <c r="F372" s="55">
         <v>0.06</v>
       </c>
-      <c r="G372" s="69" t="s">
+      <c r="G372" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H372" s="57" t="s">
@@ -52716,7 +52716,7 @@
       <c r="F373" s="55">
         <v>0.1</v>
       </c>
-      <c r="G373" s="69" t="s">
+      <c r="G373" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H373" s="57" t="s">
@@ -52742,7 +52742,7 @@
       <c r="F374" s="55">
         <v>0.9</v>
       </c>
-      <c r="G374" s="69" t="s">
+      <c r="G374" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H374" s="57" t="s">
@@ -52768,7 +52768,7 @@
       <c r="F375" s="55">
         <v>0.4</v>
       </c>
-      <c r="G375" s="69" t="s">
+      <c r="G375" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H375" s="57" t="s">
@@ -52794,7 +52794,7 @@
       <c r="F376" s="55">
         <v>0.18</v>
       </c>
-      <c r="G376" s="69" t="s">
+      <c r="G376" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H376" s="57" t="s">
@@ -52820,7 +52820,7 @@
       <c r="F377" s="55">
         <v>0.2</v>
       </c>
-      <c r="G377" s="69" t="s">
+      <c r="G377" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H377" s="57" t="s">
@@ -52846,7 +52846,7 @@
       <c r="F378" s="55">
         <v>0.12</v>
       </c>
-      <c r="G378" s="69" t="s">
+      <c r="G378" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H378" s="57" t="s">
@@ -52872,7 +52872,7 @@
       <c r="F379" s="55">
         <v>0.08</v>
       </c>
-      <c r="G379" s="69" t="s">
+      <c r="G379" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H379" s="57" t="s">
@@ -52898,7 +52898,7 @@
       <c r="F380" s="55">
         <v>0.06</v>
       </c>
-      <c r="G380" s="69" t="s">
+      <c r="G380" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H380" s="57" t="s">
@@ -52924,7 +52924,7 @@
       <c r="F381" s="55">
         <v>0.1</v>
       </c>
-      <c r="G381" s="69" t="s">
+      <c r="G381" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H381" s="57" t="s">
@@ -52950,7 +52950,7 @@
       <c r="F382" s="55">
         <v>0.72</v>
       </c>
-      <c r="G382" s="69" t="s">
+      <c r="G382" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H382" s="57" t="s">
@@ -52976,7 +52976,7 @@
       <c r="F383" s="55">
         <v>0.4</v>
       </c>
-      <c r="G383" s="69" t="s">
+      <c r="G383" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H383" s="57" t="s">
@@ -53002,7 +53002,7 @@
       <c r="F384" s="55">
         <v>0.2</v>
       </c>
-      <c r="G384" s="69" t="s">
+      <c r="G384" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H384" s="57" t="s">
@@ -53028,7 +53028,7 @@
       <c r="F385" s="55">
         <v>0.12</v>
       </c>
-      <c r="G385" s="69" t="s">
+      <c r="G385" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H385" s="57" t="s">
@@ -53054,7 +53054,7 @@
       <c r="F386" s="55">
         <v>0.08</v>
       </c>
-      <c r="G386" s="69" t="s">
+      <c r="G386" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H386" s="57" t="s">
@@ -53080,7 +53080,7 @@
       <c r="F387" s="55">
         <v>0.06</v>
       </c>
-      <c r="G387" s="69" t="s">
+      <c r="G387" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H387" s="57" t="s">
@@ -53106,7 +53106,7 @@
       <c r="F388" s="55">
         <v>0.3</v>
       </c>
-      <c r="G388" s="69" t="s">
+      <c r="G388" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H388" s="57" t="s">
@@ -53128,7 +53128,7 @@
       <c r="F389" s="55">
         <v>1</v>
       </c>
-      <c r="G389" s="69" t="s">
+      <c r="G389" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H389" s="57" t="s">
@@ -53150,7 +53150,7 @@
       <c r="F390" s="55">
         <v>1</v>
       </c>
-      <c r="G390" s="69" t="s">
+      <c r="G390" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H390" s="57" t="s">
@@ -53170,7 +53170,7 @@
         <v>84</v>
       </c>
       <c r="F391" s="55"/>
-      <c r="G391" s="69" t="s">
+      <c r="G391" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H391" s="57" t="s">
@@ -53192,7 +53192,7 @@
       <c r="F392" s="55">
         <v>1</v>
       </c>
-      <c r="G392" s="69" t="s">
+      <c r="G392" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H392" s="57" t="s">
@@ -53218,7 +53218,7 @@
       <c r="F393" s="55">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G393" s="69" t="s">
+      <c r="G393" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H393" s="57" t="s">
@@ -53244,7 +53244,7 @@
       <c r="F394" s="55">
         <v>0.3</v>
       </c>
-      <c r="G394" s="69" t="s">
+      <c r="G394" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H394" s="57" t="s">
@@ -53270,7 +53270,7 @@
       <c r="F395" s="55">
         <v>0.06</v>
       </c>
-      <c r="G395" s="69" t="s">
+      <c r="G395" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H395" s="57" t="s">
@@ -53296,7 +53296,7 @@
       <c r="F396" s="55">
         <v>0.1</v>
       </c>
-      <c r="G396" s="69" t="s">
+      <c r="G396" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H396" s="57" t="s">
@@ -53322,7 +53322,7 @@
       <c r="F397" s="55">
         <v>0.12</v>
       </c>
-      <c r="G397" s="69" t="s">
+      <c r="G397" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H397" s="57" t="s">
@@ -53348,7 +53348,7 @@
       <c r="F398" s="55">
         <v>0.08</v>
       </c>
-      <c r="G398" s="69" t="s">
+      <c r="G398" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H398" s="57" t="s">
@@ -53374,7 +53374,7 @@
       <c r="F399" s="55">
         <v>0.06</v>
       </c>
-      <c r="G399" s="69" t="s">
+      <c r="G399" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H399" s="57" t="s">
@@ -53400,7 +53400,7 @@
       <c r="F400" s="55">
         <v>0.1</v>
       </c>
-      <c r="G400" s="69" t="s">
+      <c r="G400" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H400" s="57" t="s">
@@ -53422,7 +53422,7 @@
       <c r="F401" s="55">
         <v>1</v>
       </c>
-      <c r="G401" s="69" t="s">
+      <c r="G401" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H401" s="57" t="s">
@@ -53448,7 +53448,7 @@
       <c r="F402" s="55">
         <v>0.68</v>
       </c>
-      <c r="G402" s="69" t="s">
+      <c r="G402" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H402" s="57" t="s">
@@ -53474,7 +53474,7 @@
       <c r="F403" s="55">
         <v>0.4</v>
       </c>
-      <c r="G403" s="69" t="s">
+      <c r="G403" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H403" s="57" t="s">
@@ -53500,7 +53500,7 @@
       <c r="F404" s="55">
         <v>0.06</v>
       </c>
-      <c r="G404" s="69" t="s">
+      <c r="G404" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H404" s="57" t="s">
@@ -53526,7 +53526,7 @@
       <c r="F405" s="55">
         <v>0.1</v>
       </c>
-      <c r="G405" s="69" t="s">
+      <c r="G405" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H405" s="57" t="s">
@@ -53552,7 +53552,7 @@
       <c r="F406" s="55">
         <v>0.12</v>
       </c>
-      <c r="G406" s="69" t="s">
+      <c r="G406" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H406" s="57" t="s">
@@ -53578,7 +53578,7 @@
       <c r="F407" s="55">
         <v>0.08</v>
       </c>
-      <c r="G407" s="69" t="s">
+      <c r="G407" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H407" s="57" t="s">
@@ -53604,7 +53604,7 @@
       <c r="F408" s="55">
         <v>0.06</v>
       </c>
-      <c r="G408" s="69" t="s">
+      <c r="G408" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H408" s="57" t="s">
@@ -53630,7 +53630,7 @@
       <c r="F409" s="55">
         <v>0.3</v>
       </c>
-      <c r="G409" s="69" t="s">
+      <c r="G409" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H409" s="57" t="s">
@@ -53656,7 +53656,7 @@
       <c r="F410" s="55">
         <v>0.84</v>
       </c>
-      <c r="G410" s="69" t="s">
+      <c r="G410" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H410" s="57" t="s">
@@ -53682,7 +53682,7 @@
       <c r="F411" s="55">
         <v>0.4</v>
       </c>
-      <c r="G411" s="69" t="s">
+      <c r="G411" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H411" s="57" t="s">
@@ -53708,7 +53708,7 @@
       <c r="F412" s="55">
         <v>0.12</v>
       </c>
-      <c r="G412" s="69" t="s">
+      <c r="G412" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H412" s="57" t="s">
@@ -53734,7 +53734,7 @@
       <c r="F413" s="55">
         <v>0.2</v>
       </c>
-      <c r="G413" s="69" t="s">
+      <c r="G413" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H413" s="57" t="s">
@@ -53760,7 +53760,7 @@
       <c r="F414" s="55">
         <v>0.12</v>
       </c>
-      <c r="G414" s="69" t="s">
+      <c r="G414" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H414" s="57" t="s">
@@ -53786,7 +53786,7 @@
       <c r="F415" s="55">
         <v>0.08</v>
       </c>
-      <c r="G415" s="69" t="s">
+      <c r="G415" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H415" s="57" t="s">
@@ -53812,7 +53812,7 @@
       <c r="F416" s="55">
         <v>0.06</v>
       </c>
-      <c r="G416" s="69" t="s">
+      <c r="G416" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H416" s="57" t="s">
@@ -53838,7 +53838,7 @@
       <c r="F417" s="55">
         <v>0.3</v>
       </c>
-      <c r="G417" s="69" t="s">
+      <c r="G417" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H417" s="57" t="s">
@@ -53860,7 +53860,7 @@
       <c r="F418" s="55">
         <v>1</v>
       </c>
-      <c r="G418" s="69" t="s">
+      <c r="G418" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H418" s="57" t="s">
@@ -53886,7 +53886,7 @@
       <c r="F419" s="55">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G419" s="69" t="s">
+      <c r="G419" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H419" s="57" t="s">
@@ -53912,7 +53912,7 @@
       <c r="F420" s="55">
         <v>0.3</v>
       </c>
-      <c r="G420" s="69" t="s">
+      <c r="G420" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H420" s="57" t="s">
@@ -53938,7 +53938,7 @@
       <c r="F421" s="55">
         <v>0.06</v>
       </c>
-      <c r="G421" s="69" t="s">
+      <c r="G421" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H421" s="57" t="s">
@@ -53964,7 +53964,7 @@
       <c r="F422" s="55">
         <v>0.1</v>
       </c>
-      <c r="G422" s="69" t="s">
+      <c r="G422" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H422" s="57" t="s">
@@ -53990,7 +53990,7 @@
       <c r="F423" s="55">
         <v>0.12</v>
       </c>
-      <c r="G423" s="69" t="s">
+      <c r="G423" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H423" s="57" t="s">
@@ -54016,7 +54016,7 @@
       <c r="F424" s="55">
         <v>0.08</v>
       </c>
-      <c r="G424" s="69" t="s">
+      <c r="G424" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H424" s="57" t="s">
@@ -54042,7 +54042,7 @@
       <c r="F425" s="55">
         <v>0.06</v>
       </c>
-      <c r="G425" s="69" t="s">
+      <c r="G425" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H425" s="57" t="s">
@@ -54068,7 +54068,7 @@
       <c r="F426" s="55">
         <v>0.1</v>
       </c>
-      <c r="G426" s="69" t="s">
+      <c r="G426" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H426" s="57" t="s">
@@ -54090,7 +54090,7 @@
       <c r="F427" s="55">
         <v>1</v>
       </c>
-      <c r="G427" s="69" t="s">
+      <c r="G427" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H427" s="57" t="s">
@@ -54116,7 +54116,7 @@
       <c r="F428" s="55">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G428" s="69" t="s">
+      <c r="G428" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H428" s="57" t="s">
@@ -54142,7 +54142,7 @@
       <c r="F429" s="55">
         <v>0.3</v>
       </c>
-      <c r="G429" s="69" t="s">
+      <c r="G429" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H429" s="57" t="s">
@@ -54168,7 +54168,7 @@
       <c r="F430" s="55">
         <v>0.06</v>
       </c>
-      <c r="G430" s="69" t="s">
+      <c r="G430" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H430" s="57" t="s">
@@ -54194,7 +54194,7 @@
       <c r="F431" s="55">
         <v>0.1</v>
       </c>
-      <c r="G431" s="69" t="s">
+      <c r="G431" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H431" s="57" t="s">
@@ -54220,7 +54220,7 @@
       <c r="F432" s="55">
         <v>0.12</v>
       </c>
-      <c r="G432" s="69" t="s">
+      <c r="G432" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H432" s="57" t="s">
@@ -54246,7 +54246,7 @@
       <c r="F433" s="55">
         <v>0.08</v>
       </c>
-      <c r="G433" s="69" t="s">
+      <c r="G433" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H433" s="57" t="s">
@@ -54272,7 +54272,7 @@
       <c r="F434" s="55">
         <v>0.06</v>
       </c>
-      <c r="G434" s="69" t="s">
+      <c r="G434" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H434" s="57" t="s">
@@ -54298,7 +54298,7 @@
       <c r="F435" s="55">
         <v>-0.1</v>
       </c>
-      <c r="G435" s="69" t="s">
+      <c r="G435" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H435" s="57" t="s">
@@ -54324,7 +54324,7 @@
       <c r="F436" s="55">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G436" s="69" t="s">
+      <c r="G436" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H436" s="57" t="s">
@@ -54350,7 +54350,7 @@
       <c r="F437" s="55">
         <v>0.3</v>
       </c>
-      <c r="G437" s="69" t="s">
+      <c r="G437" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H437" s="57" t="s">
@@ -54376,7 +54376,7 @@
       <c r="F438" s="55">
         <v>0.06</v>
       </c>
-      <c r="G438" s="69" t="s">
+      <c r="G438" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H438" s="57" t="s">
@@ -54402,7 +54402,7 @@
       <c r="F439" s="55">
         <v>0.1</v>
       </c>
-      <c r="G439" s="69" t="s">
+      <c r="G439" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H439" s="57" t="s">
@@ -54428,7 +54428,7 @@
       <c r="F440" s="55">
         <v>0.12</v>
       </c>
-      <c r="G440" s="69" t="s">
+      <c r="G440" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H440" s="57" t="s">
@@ -54454,7 +54454,7 @@
       <c r="F441" s="55">
         <v>0.08</v>
       </c>
-      <c r="G441" s="69" t="s">
+      <c r="G441" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H441" s="57" t="s">
@@ -54480,7 +54480,7 @@
       <c r="F442" s="55">
         <v>0.06</v>
       </c>
-      <c r="G442" s="69" t="s">
+      <c r="G442" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H442" s="57" t="s">
@@ -54506,7 +54506,7 @@
       <c r="F443" s="55">
         <v>0.1</v>
       </c>
-      <c r="G443" s="69" t="s">
+      <c r="G443" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H443" s="57" t="s">
@@ -54532,7 +54532,7 @@
       <c r="F444" s="55">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G444" s="69" t="s">
+      <c r="G444" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H444" s="57" t="s">
@@ -54558,7 +54558,7 @@
       <c r="F445" s="55">
         <v>0.3</v>
       </c>
-      <c r="G445" s="69" t="s">
+      <c r="G445" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H445" s="57" t="s">
@@ -54584,7 +54584,7 @@
       <c r="F446" s="55">
         <v>0.06</v>
       </c>
-      <c r="G446" s="69" t="s">
+      <c r="G446" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H446" s="57" t="s">
@@ -54610,7 +54610,7 @@
       <c r="F447" s="55">
         <v>0.1</v>
       </c>
-      <c r="G447" s="69" t="s">
+      <c r="G447" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H447" s="57" t="s">
@@ -54636,7 +54636,7 @@
       <c r="F448" s="55">
         <v>0.12</v>
       </c>
-      <c r="G448" s="69" t="s">
+      <c r="G448" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H448" s="57" t="s">
@@ -54662,7 +54662,7 @@
       <c r="F449" s="55">
         <v>0.08</v>
       </c>
-      <c r="G449" s="69" t="s">
+      <c r="G449" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H449" s="57" t="s">
@@ -54688,7 +54688,7 @@
       <c r="F450" s="55">
         <v>0.06</v>
       </c>
-      <c r="G450" s="69" t="s">
+      <c r="G450" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H450" s="57" t="s">
@@ -54714,7 +54714,7 @@
       <c r="F451" s="55">
         <v>0.1</v>
       </c>
-      <c r="G451" s="69" t="s">
+      <c r="G451" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H451" s="57" t="s">
@@ -54740,7 +54740,7 @@
       <c r="F452" s="55">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G452" s="69" t="s">
+      <c r="G452" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H452" s="57" t="s">
@@ -54766,7 +54766,7 @@
       <c r="F453" s="55">
         <v>0.3</v>
       </c>
-      <c r="G453" s="69" t="s">
+      <c r="G453" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H453" s="57" t="s">
@@ -54792,7 +54792,7 @@
       <c r="F454" s="55">
         <v>0.06</v>
       </c>
-      <c r="G454" s="69" t="s">
+      <c r="G454" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H454" s="57" t="s">
@@ -54818,7 +54818,7 @@
       <c r="F455" s="55">
         <v>0.1</v>
       </c>
-      <c r="G455" s="69" t="s">
+      <c r="G455" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H455" s="57" t="s">
@@ -54844,7 +54844,7 @@
       <c r="F456" s="55">
         <v>0.12</v>
       </c>
-      <c r="G456" s="69" t="s">
+      <c r="G456" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H456" s="57" t="s">
@@ -54870,7 +54870,7 @@
       <c r="F457" s="55">
         <v>0.08</v>
       </c>
-      <c r="G457" s="69" t="s">
+      <c r="G457" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H457" s="57" t="s">
@@ -54896,7 +54896,7 @@
       <c r="F458" s="55">
         <v>0.06</v>
       </c>
-      <c r="G458" s="69" t="s">
+      <c r="G458" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H458" s="57" t="s">
@@ -54922,7 +54922,7 @@
       <c r="F459" s="55">
         <v>0.3</v>
       </c>
-      <c r="G459" s="69" t="s">
+      <c r="G459" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H459" s="57" t="s">
@@ -54948,7 +54948,7 @@
       <c r="F460" s="55">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G460" s="69" t="s">
+      <c r="G460" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H460" s="57" t="s">
@@ -54974,7 +54974,7 @@
       <c r="F461" s="55">
         <v>0.3</v>
       </c>
-      <c r="G461" s="69" t="s">
+      <c r="G461" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H461" s="57" t="s">
@@ -55000,7 +55000,7 @@
       <c r="F462" s="55">
         <v>0.06</v>
       </c>
-      <c r="G462" s="69" t="s">
+      <c r="G462" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H462" s="57" t="s">
@@ -55026,7 +55026,7 @@
       <c r="F463" s="55">
         <v>0.1</v>
       </c>
-      <c r="G463" s="69" t="s">
+      <c r="G463" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H463" s="57" t="s">
@@ -55052,7 +55052,7 @@
       <c r="F464" s="55">
         <v>0.12</v>
       </c>
-      <c r="G464" s="69" t="s">
+      <c r="G464" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H464" s="57" t="s">
@@ -55078,7 +55078,7 @@
       <c r="F465" s="55">
         <v>0.08</v>
       </c>
-      <c r="G465" s="69" t="s">
+      <c r="G465" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H465" s="57" t="s">
@@ -55104,7 +55104,7 @@
       <c r="F466" s="55">
         <v>0.06</v>
       </c>
-      <c r="G466" s="69" t="s">
+      <c r="G466" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H466" s="57" t="s">
@@ -55130,7 +55130,7 @@
       <c r="F467" s="55">
         <v>0.3</v>
       </c>
-      <c r="G467" s="69" t="s">
+      <c r="G467" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H467" s="57" t="s">
@@ -55156,7 +55156,7 @@
       <c r="F468" s="55">
         <v>0.26</v>
       </c>
-      <c r="G468" s="69" t="s">
+      <c r="G468" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H468" s="57" t="s">
@@ -55182,7 +55182,7 @@
       <c r="F469" s="55">
         <v>0.1</v>
       </c>
-      <c r="G469" s="69" t="s">
+      <c r="G469" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H469" s="57" t="s">
@@ -55208,7 +55208,7 @@
       <c r="F470" s="55">
         <v>0.06</v>
       </c>
-      <c r="G470" s="69" t="s">
+      <c r="G470" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H470" s="57" t="s">
@@ -55234,7 +55234,7 @@
       <c r="F471" s="55">
         <v>0.1</v>
       </c>
-      <c r="G471" s="69" t="s">
+      <c r="G471" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H471" s="57" t="s">
@@ -55260,7 +55260,7 @@
       <c r="F472" s="55">
         <v>0.06</v>
       </c>
-      <c r="G472" s="69" t="s">
+      <c r="G472" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H472" s="57" t="s">
@@ -55286,7 +55286,7 @@
       <c r="F473" s="55">
         <v>0.26</v>
       </c>
-      <c r="G473" s="69" t="s">
+      <c r="G473" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H473" s="57" t="s">
@@ -55312,7 +55312,7 @@
       <c r="F474" s="55">
         <v>0.1</v>
       </c>
-      <c r="G474" s="69" t="s">
+      <c r="G474" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H474" s="57" t="s">
@@ -55338,7 +55338,7 @@
       <c r="F475" s="55">
         <v>0.06</v>
       </c>
-      <c r="G475" s="69" t="s">
+      <c r="G475" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H475" s="57" t="s">
@@ -55364,7 +55364,7 @@
       <c r="F476" s="55">
         <v>0.1</v>
       </c>
-      <c r="G476" s="69" t="s">
+      <c r="G476" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H476" s="57" t="s">
@@ -55390,7 +55390,7 @@
       <c r="F477" s="55">
         <v>0.06</v>
       </c>
-      <c r="G477" s="69" t="s">
+      <c r="G477" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H477" s="57" t="s">
@@ -55412,7 +55412,7 @@
       <c r="F478" s="55">
         <v>1</v>
       </c>
-      <c r="G478" s="69" t="s">
+      <c r="G478" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H478" s="57" t="s">
@@ -55434,7 +55434,7 @@
       <c r="F479" s="55">
         <v>1</v>
       </c>
-      <c r="G479" s="69" t="s">
+      <c r="G479" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H479" s="57" t="s">
@@ -55456,7 +55456,7 @@
       <c r="F480" s="55">
         <v>1</v>
       </c>
-      <c r="G480" s="69" t="s">
+      <c r="G480" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H480" s="57" t="s">
@@ -55478,7 +55478,7 @@
       <c r="F481" s="55">
         <v>1</v>
       </c>
-      <c r="G481" s="69" t="s">
+      <c r="G481" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H481" s="57" t="s">
@@ -55500,7 +55500,7 @@
       <c r="F482" s="55">
         <v>1</v>
       </c>
-      <c r="G482" s="69" t="s">
+      <c r="G482" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H482" s="57" t="s">
@@ -55522,7 +55522,7 @@
       <c r="F483" s="55">
         <v>1</v>
       </c>
-      <c r="G483" s="69" t="s">
+      <c r="G483" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H483" s="57" t="s">
@@ -55544,7 +55544,7 @@
       <c r="F484" s="55">
         <v>1</v>
       </c>
-      <c r="G484" s="69" t="s">
+      <c r="G484" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H484" s="57" t="s">
@@ -55566,7 +55566,7 @@
       <c r="F485" s="55">
         <v>1</v>
       </c>
-      <c r="G485" s="69" t="s">
+      <c r="G485" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H485" s="57" t="s">
@@ -55588,7 +55588,7 @@
       <c r="F486" s="55">
         <v>1</v>
       </c>
-      <c r="G486" s="69" t="s">
+      <c r="G486" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H486" s="57" t="s">
@@ -55610,7 +55610,7 @@
       <c r="F487" s="55">
         <v>1</v>
       </c>
-      <c r="G487" s="69" t="s">
+      <c r="G487" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H487" s="57" t="s">
@@ -55632,7 +55632,7 @@
       <c r="F488" s="55">
         <v>1</v>
       </c>
-      <c r="G488" s="69" t="s">
+      <c r="G488" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H488" s="57" t="s">
@@ -55654,7 +55654,7 @@
       <c r="F489" s="55">
         <v>1</v>
       </c>
-      <c r="G489" s="69" t="s">
+      <c r="G489" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H489" s="57" t="s">
@@ -55676,7 +55676,7 @@
       <c r="F490" s="55">
         <v>1</v>
       </c>
-      <c r="G490" s="69" t="s">
+      <c r="G490" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H490" s="57" t="s">
@@ -55698,7 +55698,7 @@
       <c r="F491" s="55">
         <v>1</v>
       </c>
-      <c r="G491" s="69" t="s">
+      <c r="G491" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H491" s="57" t="s">
@@ -55720,7 +55720,7 @@
       <c r="F492" s="55">
         <v>1</v>
       </c>
-      <c r="G492" s="69" t="s">
+      <c r="G492" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H492" s="57" t="s">
@@ -55746,7 +55746,7 @@
       <c r="F493" s="55">
         <v>0.42</v>
       </c>
-      <c r="G493" s="69" t="s">
+      <c r="G493" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H493" s="57" t="s">
@@ -55772,7 +55772,7 @@
       <c r="F494" s="55">
         <v>0.2</v>
       </c>
-      <c r="G494" s="69" t="s">
+      <c r="G494" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H494" s="57" t="s">
@@ -55798,7 +55798,7 @@
       <c r="F495" s="55">
         <v>0.12</v>
       </c>
-      <c r="G495" s="69" t="s">
+      <c r="G495" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H495" s="57" t="s">
@@ -55824,7 +55824,7 @@
       <c r="F496" s="55">
         <v>0.1</v>
       </c>
-      <c r="G496" s="69" t="s">
+      <c r="G496" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H496" s="57" t="s">
@@ -55850,7 +55850,7 @@
       <c r="F497" s="55">
         <v>0.08</v>
       </c>
-      <c r="G497" s="69" t="s">
+      <c r="G497" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H497" s="57" t="s">
@@ -55876,7 +55876,7 @@
       <c r="F498" s="55">
         <v>0.12</v>
       </c>
-      <c r="G498" s="69" t="s">
+      <c r="G498" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H498" s="57" t="s">
@@ -55902,7 +55902,7 @@
       <c r="F499" s="55">
         <v>0.36</v>
       </c>
-      <c r="G499" s="69" t="s">
+      <c r="G499" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H499" s="57" t="s">
@@ -55928,7 +55928,7 @@
       <c r="F500" s="55">
         <v>0.2</v>
       </c>
-      <c r="G500" s="69" t="s">
+      <c r="G500" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H500" s="57" t="s">
@@ -55954,7 +55954,7 @@
       <c r="F501" s="55">
         <v>0.06</v>
       </c>
-      <c r="G501" s="69" t="s">
+      <c r="G501" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H501" s="57" t="s">
@@ -55980,7 +55980,7 @@
       <c r="F502" s="55">
         <v>0.1</v>
       </c>
-      <c r="G502" s="69" t="s">
+      <c r="G502" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H502" s="57" t="s">
@@ -56006,7 +56006,7 @@
       <c r="F503" s="55">
         <v>0.08</v>
       </c>
-      <c r="G503" s="69" t="s">
+      <c r="G503" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H503" s="57" t="s">
@@ -56032,7 +56032,7 @@
       <c r="F504" s="55">
         <v>0.06</v>
       </c>
-      <c r="G504" s="69" t="s">
+      <c r="G504" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H504" s="57" t="s">
@@ -56054,7 +56054,7 @@
       <c r="F505" s="55">
         <v>1</v>
       </c>
-      <c r="G505" s="69" t="s">
+      <c r="G505" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H505" s="57" t="s">
@@ -56076,7 +56076,7 @@
       <c r="F506" s="55">
         <v>1</v>
       </c>
-      <c r="G506" s="69" t="s">
+      <c r="G506" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H506" s="57" t="s">
@@ -56098,7 +56098,7 @@
       <c r="F507" s="55">
         <v>1</v>
       </c>
-      <c r="G507" s="69" t="s">
+      <c r="G507" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H507" s="57" t="s">
@@ -56120,7 +56120,7 @@
       <c r="F508" s="55">
         <v>1</v>
       </c>
-      <c r="G508" s="69" t="s">
+      <c r="G508" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H508" s="57" t="s">
@@ -56142,7 +56142,7 @@
       <c r="F509" s="55">
         <v>1</v>
       </c>
-      <c r="G509" s="69" t="s">
+      <c r="G509" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H509" s="57" t="s">
@@ -56164,7 +56164,7 @@
       <c r="F510" s="55">
         <v>1</v>
       </c>
-      <c r="G510" s="69" t="s">
+      <c r="G510" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H510" s="57" t="s">
@@ -56186,7 +56186,7 @@
       <c r="F511" s="55">
         <v>1</v>
       </c>
-      <c r="G511" s="69" t="s">
+      <c r="G511" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H511" s="57" t="s">
@@ -56208,7 +56208,7 @@
       <c r="F512" s="55">
         <v>1</v>
       </c>
-      <c r="G512" s="69" t="s">
+      <c r="G512" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H512" s="57" t="s">
@@ -56230,7 +56230,7 @@
       <c r="F513" s="55">
         <v>1</v>
       </c>
-      <c r="G513" s="69" t="s">
+      <c r="G513" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H513" s="57" t="s">
@@ -56252,7 +56252,7 @@
       <c r="F514" s="55">
         <v>1</v>
       </c>
-      <c r="G514" s="69" t="s">
+      <c r="G514" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H514" s="57" t="s">
@@ -56274,7 +56274,7 @@
       <c r="F515" s="55">
         <v>1</v>
       </c>
-      <c r="G515" s="69" t="s">
+      <c r="G515" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H515" s="57" t="s">
@@ -56296,7 +56296,7 @@
       <c r="F516" s="55">
         <v>1</v>
       </c>
-      <c r="G516" s="69" t="s">
+      <c r="G516" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H516" s="57" t="s">
@@ -56318,7 +56318,7 @@
       <c r="F517" s="55">
         <v>1</v>
       </c>
-      <c r="G517" s="69" t="s">
+      <c r="G517" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H517" s="57" t="s">
@@ -56340,7 +56340,7 @@
       <c r="F518" s="55">
         <v>1</v>
       </c>
-      <c r="G518" s="69" t="s">
+      <c r="G518" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H518" s="57" t="s">
@@ -56362,7 +56362,7 @@
       <c r="F519" s="55">
         <v>1</v>
       </c>
-      <c r="G519" s="69" t="s">
+      <c r="G519" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H519" s="57" t="s">
@@ -56382,7 +56382,7 @@
         <v>84</v>
       </c>
       <c r="F520" s="55"/>
-      <c r="G520" s="69" t="s">
+      <c r="G520" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H520" s="57" t="s">
@@ -56408,7 +56408,7 @@
       <c r="F521" s="55">
         <v>0.26</v>
       </c>
-      <c r="G521" s="69" t="s">
+      <c r="G521" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H521" s="57" t="s">
@@ -56434,7 +56434,7 @@
       <c r="F522" s="55">
         <v>0.1</v>
       </c>
-      <c r="G522" s="69" t="s">
+      <c r="G522" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H522" s="57" t="s">
@@ -56460,7 +56460,7 @@
       <c r="F523" s="55">
         <v>0.06</v>
       </c>
-      <c r="G523" s="69" t="s">
+      <c r="G523" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H523" s="57" t="s">
@@ -56486,7 +56486,7 @@
       <c r="F524" s="55">
         <v>0.1</v>
       </c>
-      <c r="G524" s="69" t="s">
+      <c r="G524" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H524" s="57" t="s">
@@ -56512,7 +56512,7 @@
       <c r="F525" s="55">
         <v>0.04</v>
       </c>
-      <c r="G525" s="69" t="s">
+      <c r="G525" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H525" s="57" t="s">
@@ -56538,7 +56538,7 @@
       <c r="F526" s="55">
         <v>0.06</v>
       </c>
-      <c r="G526" s="69" t="s">
+      <c r="G526" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H526" s="57" t="s">
@@ -56564,7 +56564,7 @@
       <c r="F527" s="55">
         <v>0.26</v>
       </c>
-      <c r="G527" s="69" t="s">
+      <c r="G527" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H527" s="57" t="s">
@@ -56590,7 +56590,7 @@
       <c r="F528" s="55">
         <v>0.1</v>
       </c>
-      <c r="G528" s="69" t="s">
+      <c r="G528" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H528" s="57" t="s">
@@ -56616,7 +56616,7 @@
       <c r="F529" s="55">
         <v>0.06</v>
       </c>
-      <c r="G529" s="69" t="s">
+      <c r="G529" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H529" s="57" t="s">
@@ -56642,7 +56642,7 @@
       <c r="F530" s="55">
         <v>0.1</v>
       </c>
-      <c r="G530" s="69" t="s">
+      <c r="G530" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H530" s="57" t="s">
@@ -56668,7 +56668,7 @@
       <c r="F531" s="55">
         <v>0.04</v>
       </c>
-      <c r="G531" s="69" t="s">
+      <c r="G531" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H531" s="57" t="s">
@@ -56694,7 +56694,7 @@
       <c r="F532" s="55">
         <v>0.06</v>
       </c>
-      <c r="G532" s="69" t="s">
+      <c r="G532" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H532" s="57" t="s">
@@ -56720,7 +56720,7 @@
       <c r="F533" s="55">
         <v>0.26</v>
       </c>
-      <c r="G533" s="69" t="s">
+      <c r="G533" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H533" s="57" t="s">
@@ -56746,7 +56746,7 @@
       <c r="F534" s="55">
         <v>0.1</v>
       </c>
-      <c r="G534" s="69" t="s">
+      <c r="G534" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H534" s="57" t="s">
@@ -56772,7 +56772,7 @@
       <c r="F535" s="55">
         <v>0.06</v>
       </c>
-      <c r="G535" s="69" t="s">
+      <c r="G535" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H535" s="57" t="s">
@@ -56798,7 +56798,7 @@
       <c r="F536" s="55">
         <v>0.1</v>
       </c>
-      <c r="G536" s="69" t="s">
+      <c r="G536" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H536" s="57" t="s">
@@ -56824,7 +56824,7 @@
       <c r="F537" s="55">
         <v>0.04</v>
       </c>
-      <c r="G537" s="69" t="s">
+      <c r="G537" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H537" s="57" t="s">
@@ -56850,7 +56850,7 @@
       <c r="F538" s="55">
         <v>0.06</v>
       </c>
-      <c r="G538" s="69" t="s">
+      <c r="G538" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H538" s="57" t="s">
@@ -56872,7 +56872,7 @@
       <c r="F539" s="55">
         <v>1</v>
       </c>
-      <c r="G539" s="69" t="s">
+      <c r="G539" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H539" s="57" t="s">
@@ -56894,7 +56894,7 @@
       <c r="F540" s="55">
         <v>1</v>
       </c>
-      <c r="G540" s="69" t="s">
+      <c r="G540" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H540" s="57" t="s">
@@ -56916,7 +56916,7 @@
       <c r="F541" s="55">
         <v>1</v>
       </c>
-      <c r="G541" s="69" t="s">
+      <c r="G541" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H541" s="57" t="s">
@@ -56938,7 +56938,7 @@
       <c r="F542" s="55">
         <v>1</v>
       </c>
-      <c r="G542" s="69" t="s">
+      <c r="G542" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H542" s="57" t="s">
@@ -56960,7 +56960,7 @@
       <c r="F543" s="55">
         <v>1</v>
       </c>
-      <c r="G543" s="69" t="s">
+      <c r="G543" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H543" s="57" t="s">
@@ -56982,7 +56982,7 @@
       <c r="F544" s="55">
         <v>1</v>
       </c>
-      <c r="G544" s="69" t="s">
+      <c r="G544" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H544" s="57" t="s">
@@ -57004,7 +57004,7 @@
       <c r="F545" s="55">
         <v>1</v>
       </c>
-      <c r="G545" s="69" t="s">
+      <c r="G545" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H545" s="57" t="s">
@@ -57026,7 +57026,7 @@
       <c r="F546" s="55">
         <v>1</v>
       </c>
-      <c r="G546" s="69" t="s">
+      <c r="G546" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H546" s="57" t="s">
@@ -57048,7 +57048,7 @@
       <c r="F547" s="55">
         <v>1</v>
       </c>
-      <c r="G547" s="69" t="s">
+      <c r="G547" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H547" s="57" t="s">
@@ -57070,7 +57070,7 @@
       <c r="F548" s="55">
         <v>1</v>
       </c>
-      <c r="G548" s="69" t="s">
+      <c r="G548" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H548" s="57" t="s">
@@ -57092,7 +57092,7 @@
       <c r="F549" s="55">
         <v>1</v>
       </c>
-      <c r="G549" s="69" t="s">
+      <c r="G549" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H549" s="57" t="s">
@@ -57118,7 +57118,7 @@
       <c r="F550" s="55">
         <v>0.26</v>
       </c>
-      <c r="G550" s="69" t="s">
+      <c r="G550" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H550" s="57" t="s">
@@ -57144,7 +57144,7 @@
       <c r="F551" s="55">
         <v>0.1</v>
       </c>
-      <c r="G551" s="69" t="s">
+      <c r="G551" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H551" s="57" t="s">
@@ -57170,7 +57170,7 @@
       <c r="F552" s="55">
         <v>0.06</v>
       </c>
-      <c r="G552" s="69" t="s">
+      <c r="G552" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H552" s="57" t="s">
@@ -57196,7 +57196,7 @@
       <c r="F553" s="55">
         <v>0.1</v>
       </c>
-      <c r="G553" s="69" t="s">
+      <c r="G553" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H553" s="57" t="s">
@@ -57222,7 +57222,7 @@
       <c r="F554" s="55">
         <v>0.04</v>
       </c>
-      <c r="G554" s="69" t="s">
+      <c r="G554" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H554" s="57" t="s">
@@ -57248,7 +57248,7 @@
       <c r="F555" s="55">
         <v>0.06</v>
       </c>
-      <c r="G555" s="69" t="s">
+      <c r="G555" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H555" s="57" t="s">
@@ -57270,7 +57270,7 @@
       <c r="F556" s="55">
         <v>1</v>
       </c>
-      <c r="G556" s="69" t="s">
+      <c r="G556" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H556" s="57" t="s">
@@ -57292,7 +57292,7 @@
       <c r="F557" s="55">
         <v>1</v>
       </c>
-      <c r="G557" s="69" t="s">
+      <c r="G557" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H557" s="57" t="s">
@@ -57314,7 +57314,7 @@
       <c r="F558" s="55">
         <v>1</v>
       </c>
-      <c r="G558" s="69" t="s">
+      <c r="G558" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H558" s="57" t="s">
@@ -57336,7 +57336,7 @@
       <c r="F559" s="55">
         <v>1</v>
       </c>
-      <c r="G559" s="69" t="s">
+      <c r="G559" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H559" s="57" t="s">
@@ -57358,7 +57358,7 @@
       <c r="F560" s="55">
         <v>1</v>
       </c>
-      <c r="G560" s="69" t="s">
+      <c r="G560" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H560" s="57" t="s">
@@ -57380,7 +57380,7 @@
       <c r="F561" s="55">
         <v>1</v>
       </c>
-      <c r="G561" s="69" t="s">
+      <c r="G561" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H561" s="57" t="s">
@@ -57402,7 +57402,7 @@
       <c r="F562" s="55">
         <v>1</v>
       </c>
-      <c r="G562" s="69" t="s">
+      <c r="G562" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H562" s="57" t="s">
@@ -57424,7 +57424,7 @@
       <c r="F563" s="55">
         <v>1</v>
       </c>
-      <c r="G563" s="69" t="s">
+      <c r="G563" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H563" s="57" t="s">
@@ -57446,7 +57446,7 @@
       <c r="F564" s="55">
         <v>1</v>
       </c>
-      <c r="G564" s="69" t="s">
+      <c r="G564" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H564" s="57" t="s">
@@ -57468,7 +57468,7 @@
       <c r="F565" s="55">
         <v>1</v>
       </c>
-      <c r="G565" s="69" t="s">
+      <c r="G565" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H565" s="57" t="s">
@@ -57490,7 +57490,7 @@
       <c r="F566" s="55">
         <v>1</v>
       </c>
-      <c r="G566" s="69" t="s">
+      <c r="G566" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H566" s="57" t="s">
@@ -57512,7 +57512,7 @@
       <c r="F567" s="55">
         <v>1</v>
       </c>
-      <c r="G567" s="69" t="s">
+      <c r="G567" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H567" s="57" t="s">
@@ -57534,7 +57534,7 @@
       <c r="F568" s="55">
         <v>1</v>
       </c>
-      <c r="G568" s="69" t="s">
+      <c r="G568" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H568" s="57" t="s">
@@ -57556,7 +57556,7 @@
       <c r="F569" s="55">
         <v>1</v>
       </c>
-      <c r="G569" s="69" t="s">
+      <c r="G569" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H569" s="57" t="s">
@@ -57578,7 +57578,7 @@
       <c r="F570" s="55">
         <v>1</v>
       </c>
-      <c r="G570" s="69" t="s">
+      <c r="G570" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H570" s="57" t="s">
@@ -57604,7 +57604,7 @@
       <c r="F571" s="55">
         <v>0.96</v>
       </c>
-      <c r="G571" s="69" t="s">
+      <c r="G571" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H571" s="57" t="s">
@@ -57630,7 +57630,7 @@
       <c r="F572" s="55">
         <v>0.1</v>
       </c>
-      <c r="G572" s="69" t="s">
+      <c r="G572" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H572" s="57" t="s">
@@ -57656,7 +57656,7 @@
       <c r="F573" s="55">
         <v>0.06</v>
       </c>
-      <c r="G573" s="69" t="s">
+      <c r="G573" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H573" s="57" t="s">
@@ -57682,7 +57682,7 @@
       <c r="F574" s="55">
         <v>0.2</v>
       </c>
-      <c r="G574" s="69" t="s">
+      <c r="G574" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H574" s="57" t="s">
@@ -57708,7 +57708,7 @@
       <c r="F575" s="55">
         <v>0.6</v>
       </c>
-      <c r="G575" s="69" t="s">
+      <c r="G575" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H575" s="57" t="s">
@@ -57734,7 +57734,7 @@
       <c r="F576" s="55">
         <v>0.04</v>
       </c>
-      <c r="G576" s="69" t="s">
+      <c r="G576" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H576" s="57" t="s">
@@ -57760,7 +57760,7 @@
       <c r="F577" s="55">
         <v>0.06</v>
       </c>
-      <c r="G577" s="69" t="s">
+      <c r="G577" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H577" s="57" t="s">
@@ -57782,7 +57782,7 @@
       <c r="F578" s="55">
         <v>1</v>
       </c>
-      <c r="G578" s="69" t="s">
+      <c r="G578" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H578" s="57" t="s">
@@ -57808,7 +57808,7 @@
       <c r="F579" s="55">
         <v>0.26</v>
       </c>
-      <c r="G579" s="69" t="s">
+      <c r="G579" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H579" s="57" t="s">
@@ -57834,7 +57834,7 @@
       <c r="F580" s="55">
         <v>0.1</v>
       </c>
-      <c r="G580" s="69" t="s">
+      <c r="G580" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H580" s="57" t="s">
@@ -57860,7 +57860,7 @@
       <c r="F581" s="55">
         <v>0.06</v>
       </c>
-      <c r="G581" s="69" t="s">
+      <c r="G581" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H581" s="57" t="s">
@@ -57886,7 +57886,7 @@
       <c r="F582" s="55">
         <v>0.1</v>
       </c>
-      <c r="G582" s="69" t="s">
+      <c r="G582" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H582" s="57" t="s">
@@ -57912,7 +57912,7 @@
       <c r="F583" s="55">
         <v>0.04</v>
       </c>
-      <c r="G583" s="69" t="s">
+      <c r="G583" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H583" s="57" t="s">
@@ -57938,7 +57938,7 @@
       <c r="F584" s="55">
         <v>0.06</v>
       </c>
-      <c r="G584" s="69" t="s">
+      <c r="G584" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H584" s="57" t="s">
@@ -57964,7 +57964,7 @@
       <c r="F585" s="55">
         <v>0.6</v>
       </c>
-      <c r="G585" s="69" t="s">
+      <c r="G585" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H585" s="57" t="s">
@@ -57990,7 +57990,7 @@
       <c r="F586" s="55">
         <v>0.6</v>
       </c>
-      <c r="G586" s="69" t="s">
+      <c r="G586" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H586" s="57" t="s">
@@ -58016,7 +58016,7 @@
       <c r="F587" s="55">
         <v>0.04</v>
       </c>
-      <c r="G587" s="69" t="s">
+      <c r="G587" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H587" s="57" t="s">
@@ -58042,7 +58042,7 @@
       <c r="F588" s="55">
         <v>0.06</v>
       </c>
-      <c r="G588" s="69" t="s">
+      <c r="G588" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H588" s="57" t="s">
@@ -58068,7 +58068,7 @@
       <c r="F589" s="55">
         <v>0.36</v>
       </c>
-      <c r="G589" s="69" t="s">
+      <c r="G589" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H589" s="57" t="s">
@@ -58094,7 +58094,7 @@
       <c r="F590" s="55">
         <v>0.1</v>
       </c>
-      <c r="G590" s="69" t="s">
+      <c r="G590" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H590" s="57" t="s">
@@ -58120,7 +58120,7 @@
       <c r="F591" s="55">
         <v>0.06</v>
       </c>
-      <c r="G591" s="69" t="s">
+      <c r="G591" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H591" s="57" t="s">
@@ -58146,7 +58146,7 @@
       <c r="F592" s="55">
         <v>0.2</v>
       </c>
-      <c r="G592" s="69" t="s">
+      <c r="G592" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H592" s="57" t="s">
@@ -58172,7 +58172,7 @@
       <c r="F593" s="55">
         <v>0.04</v>
       </c>
-      <c r="G593" s="69" t="s">
+      <c r="G593" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H593" s="57" t="s">
@@ -58198,7 +58198,7 @@
       <c r="F594" s="55">
         <v>0.06</v>
       </c>
-      <c r="G594" s="69" t="s">
+      <c r="G594" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H594" s="57" t="s">
@@ -58220,7 +58220,7 @@
       <c r="F595" s="55">
         <v>1</v>
       </c>
-      <c r="G595" s="69" t="s">
+      <c r="G595" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H595" s="57" t="s">
@@ -58242,7 +58242,7 @@
       <c r="F596" s="55">
         <v>1</v>
       </c>
-      <c r="G596" s="69" t="s">
+      <c r="G596" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H596" s="57" t="s">
@@ -58264,7 +58264,7 @@
       <c r="F597" s="55">
         <v>1</v>
       </c>
-      <c r="G597" s="69" t="s">
+      <c r="G597" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H597" s="57" t="s">
@@ -58286,7 +58286,7 @@
       <c r="F598" s="55">
         <v>1</v>
       </c>
-      <c r="G598" s="69" t="s">
+      <c r="G598" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H598" s="57" t="s">
@@ -58308,7 +58308,7 @@
       <c r="F599" s="55">
         <v>1</v>
       </c>
-      <c r="G599" s="69" t="s">
+      <c r="G599" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H599" s="57" t="s">
@@ -58330,7 +58330,7 @@
       <c r="F600" s="55">
         <v>1</v>
       </c>
-      <c r="G600" s="69" t="s">
+      <c r="G600" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H600" s="57" t="s">
@@ -58356,7 +58356,7 @@
       <c r="F601" s="55">
         <v>0.84</v>
       </c>
-      <c r="G601" s="69" t="s">
+      <c r="G601" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H601" s="57" t="s">
@@ -58382,7 +58382,7 @@
       <c r="F602" s="55">
         <v>0.4</v>
       </c>
-      <c r="G602" s="69" t="s">
+      <c r="G602" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H602" s="57" t="s">
@@ -58408,7 +58408,7 @@
       <c r="F603" s="55">
         <v>0.12</v>
       </c>
-      <c r="G603" s="69" t="s">
+      <c r="G603" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H603" s="57" t="s">
@@ -58434,7 +58434,7 @@
       <c r="F604" s="55">
         <v>0.2</v>
       </c>
-      <c r="G604" s="69" t="s">
+      <c r="G604" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H604" s="57" t="s">
@@ -58460,7 +58460,7 @@
       <c r="F605" s="55">
         <v>0.12</v>
       </c>
-      <c r="G605" s="69" t="s">
+      <c r="G605" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H605" s="57" t="s">
@@ -58486,7 +58486,7 @@
       <c r="F606" s="55">
         <v>0.08</v>
       </c>
-      <c r="G606" s="69" t="s">
+      <c r="G606" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H606" s="57" t="s">
@@ -58512,7 +58512,7 @@
       <c r="F607" s="55">
         <v>0.06</v>
       </c>
-      <c r="G607" s="69" t="s">
+      <c r="G607" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H607" s="57" t="s">
@@ -58538,7 +58538,7 @@
       <c r="F608" s="55">
         <v>0.3</v>
       </c>
-      <c r="G608" s="69" t="s">
+      <c r="G608" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H608" s="57" t="s">
@@ -58560,7 +58560,7 @@
       <c r="F609" s="55">
         <v>1</v>
       </c>
-      <c r="G609" s="69" t="s">
+      <c r="G609" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H609" s="57" t="s">
@@ -58586,7 +58586,7 @@
       <c r="F610" s="55">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G610" s="69" t="s">
+      <c r="G610" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H610" s="57" t="s">
@@ -58612,7 +58612,7 @@
       <c r="F611" s="55">
         <v>0.3</v>
       </c>
-      <c r="G611" s="69" t="s">
+      <c r="G611" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H611" s="57" t="s">
@@ -58638,7 +58638,7 @@
       <c r="F612" s="55">
         <v>0.06</v>
       </c>
-      <c r="G612" s="69" t="s">
+      <c r="G612" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H612" s="57" t="s">
@@ -58664,7 +58664,7 @@
       <c r="F613" s="55">
         <v>0.1</v>
       </c>
-      <c r="G613" s="69" t="s">
+      <c r="G613" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H613" s="57" t="s">
@@ -58690,7 +58690,7 @@
       <c r="F614" s="55">
         <v>0.12</v>
       </c>
-      <c r="G614" s="69" t="s">
+      <c r="G614" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H614" s="57" t="s">
@@ -58716,7 +58716,7 @@
       <c r="F615" s="55">
         <v>0.12</v>
       </c>
-      <c r="G615" s="69" t="s">
+      <c r="G615" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H615" s="57" t="s">
@@ -58742,7 +58742,7 @@
       <c r="F616" s="55">
         <v>0.06</v>
       </c>
-      <c r="G616" s="69" t="s">
+      <c r="G616" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H616" s="57" t="s">
@@ -58768,7 +58768,7 @@
       <c r="F617" s="55">
         <v>0.1</v>
       </c>
-      <c r="G617" s="69" t="s">
+      <c r="G617" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H617" s="57" t="s">
@@ -58790,7 +58790,7 @@
       <c r="F618" s="55">
         <v>1</v>
       </c>
-      <c r="G618" s="69" t="s">
+      <c r="G618" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H618" s="57" t="s">
@@ -58816,7 +58816,7 @@
       <c r="F619" s="55">
         <v>0.4</v>
       </c>
-      <c r="G619" s="69" t="s">
+      <c r="G619" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H619" s="57" t="s">
@@ -58842,7 +58842,7 @@
       <c r="F620" s="55">
         <v>0.3</v>
       </c>
-      <c r="G620" s="69" t="s">
+      <c r="G620" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H620" s="57" t="s">
@@ -58868,7 +58868,7 @@
       <c r="F621" s="55">
         <v>0.1</v>
       </c>
-      <c r="G621" s="69" t="s">
+      <c r="G621" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H621" s="57" t="s">
@@ -58894,7 +58894,7 @@
       <c r="F622" s="55">
         <v>0.04</v>
       </c>
-      <c r="G622" s="69" t="s">
+      <c r="G622" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H622" s="57" t="s">
@@ -58920,7 +58920,7 @@
       <c r="F623" s="55">
         <v>0.12</v>
       </c>
-      <c r="G623" s="69" t="s">
+      <c r="G623" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H623" s="57" t="s">
@@ -58946,7 +58946,7 @@
       <c r="F624" s="55">
         <v>0.3</v>
       </c>
-      <c r="G624" s="69" t="s">
+      <c r="G624" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H624" s="57" t="s">
@@ -58972,7 +58972,7 @@
       <c r="F625" s="55">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G625" s="69" t="s">
+      <c r="G625" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H625" s="57" t="s">
@@ -58998,7 +58998,7 @@
       <c r="F626" s="55">
         <v>0.3</v>
       </c>
-      <c r="G626" s="69" t="s">
+      <c r="G626" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H626" s="57" t="s">
@@ -59024,7 +59024,7 @@
       <c r="F627" s="55">
         <v>0.1</v>
       </c>
-      <c r="G627" s="69" t="s">
+      <c r="G627" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H627" s="57" t="s">
@@ -59050,7 +59050,7 @@
       <c r="F628" s="55">
         <v>0.18</v>
       </c>
-      <c r="G628" s="69" t="s">
+      <c r="G628" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H628" s="57" t="s">
@@ -59076,7 +59076,7 @@
       <c r="F629" s="55">
         <v>0.04</v>
       </c>
-      <c r="G629" s="69" t="s">
+      <c r="G629" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H629" s="57" t="s">
@@ -59102,7 +59102,7 @@
       <c r="F630" s="55">
         <v>0.06</v>
       </c>
-      <c r="G630" s="69" t="s">
+      <c r="G630" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H630" s="57" t="s">
@@ -59128,7 +59128,7 @@
       <c r="F631" s="55">
         <v>0.3</v>
       </c>
-      <c r="G631" s="69" t="s">
+      <c r="G631" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H631" s="57" t="s">
@@ -59150,7 +59150,7 @@
       <c r="F632" s="55">
         <v>1</v>
       </c>
-      <c r="G632" s="69" t="s">
+      <c r="G632" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H632" s="57" t="s">
@@ -59172,7 +59172,7 @@
       <c r="F633" s="55">
         <v>1</v>
       </c>
-      <c r="G633" s="69" t="s">
+      <c r="G633" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H633" s="57" t="s">
@@ -59194,7 +59194,7 @@
       <c r="F634" s="55">
         <v>1</v>
       </c>
-      <c r="G634" s="69" t="s">
+      <c r="G634" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H634" s="57" t="s">
@@ -59220,7 +59220,7 @@
       <c r="F635" s="55">
         <v>0.2</v>
       </c>
-      <c r="G635" s="69" t="s">
+      <c r="G635" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H635" s="57" t="s">
@@ -59246,7 +59246,7 @@
       <c r="F636" s="55">
         <v>0.1</v>
       </c>
-      <c r="G636" s="69" t="s">
+      <c r="G636" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H636" s="57" t="s">
@@ -59272,7 +59272,7 @@
       <c r="F637" s="55">
         <v>0.1</v>
       </c>
-      <c r="G637" s="69" t="s">
+      <c r="G637" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H637" s="57" t="s">
@@ -59298,7 +59298,7 @@
       <c r="F638" s="55">
         <v>0.08</v>
       </c>
-      <c r="G638" s="69" t="s">
+      <c r="G638" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H638" s="57" t="s">
@@ -59324,7 +59324,7 @@
       <c r="F639" s="55">
         <v>0.12</v>
       </c>
-      <c r="G639" s="69" t="s">
+      <c r="G639" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H639" s="57" t="s">
@@ -59350,7 +59350,7 @@
       <c r="F640" s="55">
         <v>0.2</v>
       </c>
-      <c r="G640" s="69" t="s">
+      <c r="G640" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H640" s="57" t="s">
@@ -59376,7 +59376,7 @@
       <c r="F641" s="55">
         <v>0.1</v>
       </c>
-      <c r="G641" s="69" t="s">
+      <c r="G641" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H641" s="57" t="s">
@@ -59402,7 +59402,7 @@
       <c r="F642" s="55">
         <v>0.1</v>
       </c>
-      <c r="G642" s="69" t="s">
+      <c r="G642" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H642" s="57" t="s">
@@ -59428,7 +59428,7 @@
       <c r="F643" s="55">
         <v>0.08</v>
       </c>
-      <c r="G643" s="69" t="s">
+      <c r="G643" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H643" s="57" t="s">
@@ -59454,7 +59454,7 @@
       <c r="F644" s="55">
         <v>0.06</v>
       </c>
-      <c r="G644" s="69" t="s">
+      <c r="G644" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H644" s="57" t="s">
@@ -59476,7 +59476,7 @@
       <c r="F645" s="55">
         <v>1</v>
       </c>
-      <c r="G645" s="69" t="s">
+      <c r="G645" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H645" s="57" t="s">
@@ -59502,7 +59502,7 @@
       <c r="F646" s="55">
         <v>0.42</v>
       </c>
-      <c r="G646" s="69" t="s">
+      <c r="G646" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H646" s="57" t="s">
@@ -59528,7 +59528,7 @@
       <c r="F647" s="55">
         <v>0.2</v>
       </c>
-      <c r="G647" s="69" t="s">
+      <c r="G647" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H647" s="57" t="s">
@@ -59554,7 +59554,7 @@
       <c r="F648" s="55">
         <v>0.12</v>
       </c>
-      <c r="G648" s="69" t="s">
+      <c r="G648" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H648" s="57" t="s">
@@ -59580,7 +59580,7 @@
       <c r="F649" s="55">
         <v>0.1</v>
       </c>
-      <c r="G649" s="69" t="s">
+      <c r="G649" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H649" s="57" t="s">
@@ -59606,7 +59606,7 @@
       <c r="F650" s="55">
         <v>0.08</v>
       </c>
-      <c r="G650" s="69" t="s">
+      <c r="G650" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H650" s="57" t="s">
@@ -59632,7 +59632,7 @@
       <c r="F651" s="55">
         <v>0.06</v>
       </c>
-      <c r="G651" s="69" t="s">
+      <c r="G651" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H651" s="57" t="s">
@@ -59658,7 +59658,7 @@
       <c r="F652" s="55">
         <v>0.42</v>
       </c>
-      <c r="G652" s="69" t="s">
+      <c r="G652" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H652" s="57" t="s">
@@ -59684,7 +59684,7 @@
       <c r="F653" s="55">
         <v>0.2</v>
       </c>
-      <c r="G653" s="69" t="s">
+      <c r="G653" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H653" s="57" t="s">
@@ -59710,7 +59710,7 @@
       <c r="F654" s="55">
         <v>0.12</v>
       </c>
-      <c r="G654" s="69" t="s">
+      <c r="G654" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H654" s="57" t="s">
@@ -59736,7 +59736,7 @@
       <c r="F655" s="55">
         <v>0.1</v>
       </c>
-      <c r="G655" s="69" t="s">
+      <c r="G655" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H655" s="57" t="s">
@@ -59762,7 +59762,7 @@
       <c r="F656" s="55">
         <v>0.08</v>
       </c>
-      <c r="G656" s="69" t="s">
+      <c r="G656" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H656" s="57" t="s">
@@ -59788,7 +59788,7 @@
       <c r="F657" s="55">
         <v>0.06</v>
       </c>
-      <c r="G657" s="69" t="s">
+      <c r="G657" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H657" s="57" t="s">
@@ -59810,7 +59810,7 @@
       <c r="F658" s="55">
         <v>1</v>
       </c>
-      <c r="G658" s="69" t="s">
+      <c r="G658" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H658" s="57" t="s">
@@ -59836,7 +59836,7 @@
       <c r="F659" s="55">
         <v>0.36</v>
       </c>
-      <c r="G659" s="69" t="s">
+      <c r="G659" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H659" s="57" t="s">
@@ -59862,7 +59862,7 @@
       <c r="F660" s="55">
         <v>0.2</v>
       </c>
-      <c r="G660" s="69" t="s">
+      <c r="G660" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H660" s="57" t="s">
@@ -59888,7 +59888,7 @@
       <c r="F661" s="55">
         <v>0.06</v>
       </c>
-      <c r="G661" s="69" t="s">
+      <c r="G661" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H661" s="57" t="s">
@@ -59914,7 +59914,7 @@
       <c r="F662" s="55">
         <v>0.1</v>
       </c>
-      <c r="G662" s="69" t="s">
+      <c r="G662" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H662" s="57" t="s">
@@ -59940,7 +59940,7 @@
       <c r="F663" s="55">
         <v>0.08</v>
       </c>
-      <c r="G663" s="69" t="s">
+      <c r="G663" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H663" s="57" t="s">
@@ -59966,7 +59966,7 @@
       <c r="F664" s="55">
         <v>0.12</v>
       </c>
-      <c r="G664" s="69" t="s">
+      <c r="G664" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H664" s="57" t="s">
@@ -59988,7 +59988,7 @@
       <c r="F665" s="55">
         <v>1</v>
       </c>
-      <c r="G665" s="69" t="s">
+      <c r="G665" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H665" s="57" t="s">
@@ -60014,7 +60014,7 @@
       <c r="F666" s="55">
         <v>0.4</v>
       </c>
-      <c r="G666" s="69" t="s">
+      <c r="G666" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H666" s="57" t="s">
@@ -60040,7 +60040,7 @@
       <c r="F667" s="55">
         <v>0.3</v>
       </c>
-      <c r="G667" s="69" t="s">
+      <c r="G667" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H667" s="57" t="s">
@@ -60066,7 +60066,7 @@
       <c r="F668" s="55">
         <v>0.1</v>
       </c>
-      <c r="G668" s="69" t="s">
+      <c r="G668" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H668" s="57" t="s">
@@ -60092,7 +60092,7 @@
       <c r="F669" s="55">
         <v>0.08</v>
       </c>
-      <c r="G669" s="69" t="s">
+      <c r="G669" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H669" s="57" t="s">
@@ -60118,7 +60118,7 @@
       <c r="F670" s="55">
         <v>0.06</v>
       </c>
-      <c r="G670" s="69" t="s">
+      <c r="G670" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H670" s="57" t="s">
@@ -60140,7 +60140,7 @@
       <c r="F671" s="55">
         <v>1</v>
       </c>
-      <c r="G671" s="69" t="s">
+      <c r="G671" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H671" s="57" t="s">
@@ -60162,7 +60162,7 @@
       <c r="F672" s="55">
         <v>1</v>
       </c>
-      <c r="G672" s="69" t="s">
+      <c r="G672" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H672" s="57" t="s">
@@ -60188,7 +60188,7 @@
       <c r="F673" s="55">
         <v>0.73</v>
       </c>
-      <c r="G673" s="69" t="s">
+      <c r="G673" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H673" s="57" t="s">
@@ -60214,7 +60214,7 @@
       <c r="F674" s="55">
         <v>0.3</v>
       </c>
-      <c r="G674" s="69" t="s">
+      <c r="G674" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H674" s="57" t="s">
@@ -60240,7 +60240,7 @@
       <c r="F675" s="55">
         <v>0.06</v>
       </c>
-      <c r="G675" s="69" t="s">
+      <c r="G675" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H675" s="57" t="s">
@@ -60266,7 +60266,7 @@
       <c r="F676" s="55">
         <v>0.1</v>
       </c>
-      <c r="G676" s="69" t="s">
+      <c r="G676" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H676" s="57" t="s">
@@ -60292,7 +60292,7 @@
       <c r="F677" s="55">
         <v>0.12</v>
       </c>
-      <c r="G677" s="69" t="s">
+      <c r="G677" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H677" s="57" t="s">
@@ -60318,7 +60318,7 @@
       <c r="F678" s="55">
         <v>0.15</v>
       </c>
-      <c r="G678" s="69" t="s">
+      <c r="G678" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H678" s="57" t="s">
@@ -60344,7 +60344,7 @@
       <c r="F679" s="55">
         <v>0.04</v>
       </c>
-      <c r="G679" s="69" t="s">
+      <c r="G679" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H679" s="57" t="s">
@@ -60370,7 +60370,7 @@
       <c r="F680" s="55">
         <v>0.06</v>
       </c>
-      <c r="G680" s="69" t="s">
+      <c r="G680" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H680" s="57" t="s">
@@ -60396,7 +60396,7 @@
       <c r="F681" s="55">
         <v>0.1</v>
       </c>
-      <c r="G681" s="69" t="s">
+      <c r="G681" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H681" s="57" t="s">
@@ -60422,7 +60422,7 @@
       <c r="F682" s="55">
         <v>0.73</v>
       </c>
-      <c r="G682" s="69" t="s">
+      <c r="G682" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H682" s="57" t="s">
@@ -60448,7 +60448,7 @@
       <c r="F683" s="55">
         <v>0.3</v>
       </c>
-      <c r="G683" s="69" t="s">
+      <c r="G683" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H683" s="57" t="s">
@@ -60474,7 +60474,7 @@
       <c r="F684" s="55">
         <v>0.06</v>
       </c>
-      <c r="G684" s="69" t="s">
+      <c r="G684" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H684" s="57" t="s">
@@ -60500,7 +60500,7 @@
       <c r="F685" s="55">
         <v>0.1</v>
       </c>
-      <c r="G685" s="69" t="s">
+      <c r="G685" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H685" s="57" t="s">
@@ -60526,7 +60526,7 @@
       <c r="F686" s="55">
         <v>0.12</v>
       </c>
-      <c r="G686" s="69" t="s">
+      <c r="G686" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H686" s="57" t="s">
@@ -60552,7 +60552,7 @@
       <c r="F687" s="55">
         <v>0.15</v>
       </c>
-      <c r="G687" s="69" t="s">
+      <c r="G687" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H687" s="57" t="s">
@@ -60578,7 +60578,7 @@
       <c r="F688" s="55">
         <v>0.04</v>
       </c>
-      <c r="G688" s="69" t="s">
+      <c r="G688" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H688" s="57" t="s">
@@ -60604,7 +60604,7 @@
       <c r="F689" s="55">
         <v>0.06</v>
       </c>
-      <c r="G689" s="69" t="s">
+      <c r="G689" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H689" s="57" t="s">
@@ -60630,7 +60630,7 @@
       <c r="F690" s="55">
         <v>0.1</v>
       </c>
-      <c r="G690" s="69" t="s">
+      <c r="G690" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H690" s="57" t="s">
@@ -60652,7 +60652,7 @@
       <c r="F691" s="55">
         <v>1</v>
       </c>
-      <c r="G691" s="69" t="s">
+      <c r="G691" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H691" s="57" t="s">
@@ -60678,7 +60678,7 @@
       <c r="F692" s="55">
         <v>0.46</v>
       </c>
-      <c r="G692" s="69" t="s">
+      <c r="G692" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H692" s="57" t="s">
@@ -60704,7 +60704,7 @@
       <c r="F693" s="55">
         <v>0.3</v>
       </c>
-      <c r="G693" s="69" t="s">
+      <c r="G693" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H693" s="57" t="s">
@@ -60730,7 +60730,7 @@
       <c r="F694" s="55">
         <v>0.06</v>
       </c>
-      <c r="G694" s="69" t="s">
+      <c r="G694" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H694" s="57" t="s">
@@ -60756,7 +60756,7 @@
       <c r="F695" s="55">
         <v>0.1</v>
       </c>
-      <c r="G695" s="69" t="s">
+      <c r="G695" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H695" s="57" t="s">
@@ -60782,7 +60782,7 @@
       <c r="F696" s="55">
         <v>0.12</v>
       </c>
-      <c r="G696" s="69" t="s">
+      <c r="G696" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H696" s="57" t="s">
@@ -60808,7 +60808,7 @@
       <c r="F697" s="55">
         <v>0.06</v>
       </c>
-      <c r="G697" s="69" t="s">
+      <c r="G697" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H697" s="57" t="s">
@@ -60834,7 +60834,7 @@
       <c r="F698" s="55">
         <v>0.1</v>
       </c>
-      <c r="G698" s="69" t="s">
+      <c r="G698" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H698" s="57" t="s">
@@ -60860,7 +60860,7 @@
       <c r="F699" s="55">
         <v>0.46</v>
       </c>
-      <c r="G699" s="69" t="s">
+      <c r="G699" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H699" s="57" t="s">
@@ -60886,7 +60886,7 @@
       <c r="F700" s="55">
         <v>0.3</v>
       </c>
-      <c r="G700" s="69" t="s">
+      <c r="G700" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H700" s="57" t="s">
@@ -60912,7 +60912,7 @@
       <c r="F701" s="55">
         <v>0.06</v>
       </c>
-      <c r="G701" s="69" t="s">
+      <c r="G701" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H701" s="57" t="s">
@@ -60938,7 +60938,7 @@
       <c r="F702" s="55">
         <v>0.1</v>
       </c>
-      <c r="G702" s="69" t="s">
+      <c r="G702" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H702" s="57" t="s">
@@ -60964,7 +60964,7 @@
       <c r="F703" s="55">
         <v>0.12</v>
       </c>
-      <c r="G703" s="69" t="s">
+      <c r="G703" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H703" s="57" t="s">
@@ -60990,7 +60990,7 @@
       <c r="F704" s="55">
         <v>0.06</v>
       </c>
-      <c r="G704" s="69" t="s">
+      <c r="G704" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H704" s="57" t="s">
@@ -61016,7 +61016,7 @@
       <c r="F705" s="55">
         <v>0.1</v>
       </c>
-      <c r="G705" s="69" t="s">
+      <c r="G705" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H705" s="57" t="s">
@@ -61042,7 +61042,7 @@
       <c r="F706" s="55">
         <v>0.46</v>
       </c>
-      <c r="G706" s="69" t="s">
+      <c r="G706" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H706" s="57" t="s">
@@ -61068,7 +61068,7 @@
       <c r="F707" s="55">
         <v>0.3</v>
       </c>
-      <c r="G707" s="69" t="s">
+      <c r="G707" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H707" s="57" t="s">
@@ -61094,7 +61094,7 @@
       <c r="F708" s="55">
         <v>0.06</v>
       </c>
-      <c r="G708" s="69" t="s">
+      <c r="G708" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H708" s="57" t="s">
@@ -61120,7 +61120,7 @@
       <c r="F709" s="55">
         <v>0.1</v>
       </c>
-      <c r="G709" s="69" t="s">
+      <c r="G709" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H709" s="57" t="s">
@@ -61146,7 +61146,7 @@
       <c r="F710" s="55">
         <v>0.12</v>
       </c>
-      <c r="G710" s="69" t="s">
+      <c r="G710" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H710" s="57" t="s">
@@ -61172,7 +61172,7 @@
       <c r="F711" s="55">
         <v>0.06</v>
       </c>
-      <c r="G711" s="69" t="s">
+      <c r="G711" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H711" s="57" t="s">
@@ -61198,7 +61198,7 @@
       <c r="F712" s="55">
         <v>0.1</v>
       </c>
-      <c r="G712" s="69" t="s">
+      <c r="G712" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H712" s="57" t="s">
@@ -61224,7 +61224,7 @@
       <c r="F713" s="55">
         <v>0.46</v>
       </c>
-      <c r="G713" s="69" t="s">
+      <c r="G713" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H713" s="57" t="s">
@@ -61250,7 +61250,7 @@
       <c r="F714" s="55">
         <v>0.3</v>
       </c>
-      <c r="G714" s="69" t="s">
+      <c r="G714" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H714" s="57" t="s">
@@ -61276,7 +61276,7 @@
       <c r="F715" s="55">
         <v>0.06</v>
       </c>
-      <c r="G715" s="69" t="s">
+      <c r="G715" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H715" s="57" t="s">
@@ -61302,7 +61302,7 @@
       <c r="F716" s="55">
         <v>0.1</v>
       </c>
-      <c r="G716" s="69" t="s">
+      <c r="G716" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H716" s="57" t="s">
@@ -61328,7 +61328,7 @@
       <c r="F717" s="55">
         <v>0.12</v>
       </c>
-      <c r="G717" s="69" t="s">
+      <c r="G717" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H717" s="57" t="s">
@@ -61354,7 +61354,7 @@
       <c r="F718" s="55">
         <v>0.06</v>
       </c>
-      <c r="G718" s="69" t="s">
+      <c r="G718" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H718" s="57" t="s">
@@ -61380,7 +61380,7 @@
       <c r="F719" s="55">
         <v>0.1</v>
       </c>
-      <c r="G719" s="69" t="s">
+      <c r="G719" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H719" s="57" t="s">
@@ -61406,7 +61406,7 @@
       <c r="F720" s="55">
         <v>0.42</v>
       </c>
-      <c r="G720" s="69" t="s">
+      <c r="G720" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H720" s="57" t="s">
@@ -61432,7 +61432,7 @@
       <c r="F721" s="55">
         <v>0.2</v>
       </c>
-      <c r="G721" s="69" t="s">
+      <c r="G721" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H721" s="57" t="s">
@@ -61458,7 +61458,7 @@
       <c r="F722" s="55">
         <v>0.1</v>
       </c>
-      <c r="G722" s="69" t="s">
+      <c r="G722" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H722" s="57" t="s">
@@ -61484,7 +61484,7 @@
       <c r="F723" s="55">
         <v>0.12</v>
       </c>
-      <c r="G723" s="69" t="s">
+      <c r="G723" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H723" s="57" t="s">
@@ -61510,7 +61510,7 @@
       <c r="F724" s="55">
         <v>0.12</v>
       </c>
-      <c r="G724" s="69" t="s">
+      <c r="G724" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H724" s="57" t="s">
@@ -61536,7 +61536,7 @@
       <c r="F725" s="55">
         <v>0.06</v>
       </c>
-      <c r="G725" s="69" t="s">
+      <c r="G725" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H725" s="57" t="s">
@@ -61562,7 +61562,7 @@
       <c r="F726" s="55">
         <v>0.32</v>
       </c>
-      <c r="G726" s="69" t="s">
+      <c r="G726" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H726" s="57" t="s">
@@ -61588,7 +61588,7 @@
       <c r="F727" s="55">
         <v>0.1</v>
       </c>
-      <c r="G727" s="69" t="s">
+      <c r="G727" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H727" s="57" t="s">
@@ -61614,7 +61614,7 @@
       <c r="F728" s="55">
         <v>0.1</v>
       </c>
-      <c r="G728" s="69" t="s">
+      <c r="G728" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H728" s="57" t="s">
@@ -61640,7 +61640,7 @@
       <c r="F729" s="55">
         <v>0.12</v>
       </c>
-      <c r="G729" s="69" t="s">
+      <c r="G729" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H729" s="57" t="s">
@@ -61666,7 +61666,7 @@
       <c r="F730" s="55">
         <v>0.12</v>
       </c>
-      <c r="G730" s="69" t="s">
+      <c r="G730" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H730" s="57" t="s">
@@ -61692,7 +61692,7 @@
       <c r="F731" s="55">
         <v>0.06</v>
       </c>
-      <c r="G731" s="69" t="s">
+      <c r="G731" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H731" s="57" t="s">
@@ -61718,7 +61718,7 @@
       <c r="F732" s="55">
         <v>0.42</v>
       </c>
-      <c r="G732" s="69" t="s">
+      <c r="G732" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H732" s="57" t="s">
@@ -61744,7 +61744,7 @@
       <c r="F733" s="55">
         <v>0.2</v>
       </c>
-      <c r="G733" s="69" t="s">
+      <c r="G733" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H733" s="57" t="s">
@@ -61770,7 +61770,7 @@
       <c r="F734" s="55">
         <v>0.12</v>
       </c>
-      <c r="G734" s="69" t="s">
+      <c r="G734" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H734" s="57" t="s">
@@ -61796,7 +61796,7 @@
       <c r="F735" s="55">
         <v>0.1</v>
       </c>
-      <c r="G735" s="69" t="s">
+      <c r="G735" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H735" s="57" t="s">
@@ -61822,7 +61822,7 @@
       <c r="F736" s="55">
         <v>0.12</v>
       </c>
-      <c r="G736" s="69" t="s">
+      <c r="G736" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H736" s="57" t="s">
@@ -61848,7 +61848,7 @@
       <c r="F737" s="55">
         <v>0.12</v>
       </c>
-      <c r="G737" s="69" t="s">
+      <c r="G737" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H737" s="57" t="s">
@@ -61874,7 +61874,7 @@
       <c r="F738" s="55">
         <v>0.32</v>
       </c>
-      <c r="G738" s="69" t="s">
+      <c r="G738" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H738" s="57" t="s">
@@ -61900,7 +61900,7 @@
       <c r="F739" s="55">
         <v>0.1</v>
       </c>
-      <c r="G739" s="69" t="s">
+      <c r="G739" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H739" s="57" t="s">
@@ -61926,7 +61926,7 @@
       <c r="F740" s="55">
         <v>0.1</v>
       </c>
-      <c r="G740" s="69" t="s">
+      <c r="G740" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H740" s="57" t="s">
@@ -61952,7 +61952,7 @@
       <c r="F741" s="55">
         <v>0.12</v>
       </c>
-      <c r="G741" s="69" t="s">
+      <c r="G741" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H741" s="57" t="s">
@@ -61978,7 +61978,7 @@
       <c r="F742" s="55">
         <v>0.12</v>
       </c>
-      <c r="G742" s="69" t="s">
+      <c r="G742" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H742" s="57" t="s">
@@ -62004,7 +62004,7 @@
       <c r="F743" s="55">
         <v>0.06</v>
       </c>
-      <c r="G743" s="69" t="s">
+      <c r="G743" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H743" s="57" t="s">
@@ -62030,7 +62030,7 @@
       <c r="F744" s="55">
         <v>0.42</v>
       </c>
-      <c r="G744" s="69" t="s">
+      <c r="G744" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H744" s="57" t="s">
@@ -62056,7 +62056,7 @@
       <c r="F745" s="55">
         <v>0.2</v>
       </c>
-      <c r="G745" s="69" t="s">
+      <c r="G745" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H745" s="57" t="s">
@@ -62082,7 +62082,7 @@
       <c r="F746" s="55">
         <v>0.1</v>
       </c>
-      <c r="G746" s="69" t="s">
+      <c r="G746" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H746" s="57" t="s">
@@ -62108,7 +62108,7 @@
       <c r="F747" s="55">
         <v>0.12</v>
       </c>
-      <c r="G747" s="69" t="s">
+      <c r="G747" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H747" s="57" t="s">
@@ -62134,7 +62134,7 @@
       <c r="F748" s="55">
         <v>0.12</v>
       </c>
-      <c r="G748" s="69" t="s">
+      <c r="G748" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H748" s="57" t="s">
@@ -62160,7 +62160,7 @@
       <c r="F749" s="55">
         <v>0.12</v>
       </c>
-      <c r="G749" s="69" t="s">
+      <c r="G749" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H749" s="57" t="s">
@@ -62186,7 +62186,7 @@
       <c r="F750" s="55">
         <v>0.32</v>
       </c>
-      <c r="G750" s="69" t="s">
+      <c r="G750" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H750" s="57" t="s">
@@ -62212,7 +62212,7 @@
       <c r="F751" s="55">
         <v>0.2</v>
       </c>
-      <c r="G751" s="69" t="s">
+      <c r="G751" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H751" s="57" t="s">
@@ -62238,7 +62238,7 @@
       <c r="F752" s="55">
         <v>0.12</v>
       </c>
-      <c r="G752" s="69" t="s">
+      <c r="G752" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H752" s="57" t="s">
@@ -62264,7 +62264,7 @@
       <c r="F753" s="55">
         <v>0.1</v>
       </c>
-      <c r="G753" s="69" t="s">
+      <c r="G753" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H753" s="57" t="s">
@@ -62290,7 +62290,7 @@
       <c r="F754" s="55">
         <v>0.12</v>
       </c>
-      <c r="G754" s="69" t="s">
+      <c r="G754" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H754" s="57" t="s">
@@ -62316,7 +62316,7 @@
       <c r="F755" s="55">
         <v>0.06</v>
       </c>
-      <c r="G755" s="69" t="s">
+      <c r="G755" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H755" s="57" t="s">
@@ -62338,7 +62338,7 @@
       <c r="F756" s="55">
         <v>1</v>
       </c>
-      <c r="G756" s="69" t="s">
+      <c r="G756" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H756" s="57" t="s">
@@ -62360,7 +62360,7 @@
       <c r="F757" s="55">
         <v>1</v>
       </c>
-      <c r="G757" s="69" t="s">
+      <c r="G757" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H757" s="57" t="s">
@@ -62382,7 +62382,7 @@
       <c r="F758" s="55">
         <v>1</v>
       </c>
-      <c r="G758" s="69" t="s">
+      <c r="G758" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H758" s="57" t="s">
@@ -62404,7 +62404,7 @@
       <c r="F759" s="55">
         <v>1</v>
       </c>
-      <c r="G759" s="69" t="s">
+      <c r="G759" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H759" s="57" t="s">
@@ -62426,7 +62426,7 @@
       <c r="F760" s="55">
         <v>1</v>
       </c>
-      <c r="G760" s="69" t="s">
+      <c r="G760" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H760" s="57" t="s">
@@ -62448,7 +62448,7 @@
       <c r="F761" s="55">
         <v>1</v>
       </c>
-      <c r="G761" s="69" t="s">
+      <c r="G761" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H761" s="57" t="s">
@@ -62470,7 +62470,7 @@
       <c r="F762" s="55">
         <v>1</v>
       </c>
-      <c r="G762" s="69" t="s">
+      <c r="G762" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H762" s="57" t="s">
@@ -62492,7 +62492,7 @@
       <c r="F763" s="55">
         <v>1</v>
       </c>
-      <c r="G763" s="69" t="s">
+      <c r="G763" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H763" s="57" t="s">
@@ -62514,7 +62514,7 @@
       <c r="F764" s="55">
         <v>1</v>
       </c>
-      <c r="G764" s="69" t="s">
+      <c r="G764" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H764" s="57" t="s">
@@ -62536,7 +62536,7 @@
       <c r="F765" s="55">
         <v>1</v>
       </c>
-      <c r="G765" s="69" t="s">
+      <c r="G765" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H765" s="57" t="s">
@@ -62558,7 +62558,7 @@
       <c r="F766" s="55">
         <v>1</v>
       </c>
-      <c r="G766" s="69" t="s">
+      <c r="G766" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H766" s="57" t="s">
@@ -62580,7 +62580,7 @@
       <c r="F767" s="55">
         <v>1</v>
       </c>
-      <c r="G767" s="69" t="s">
+      <c r="G767" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H767" s="57" t="s">
@@ -62602,7 +62602,7 @@
       <c r="F768" s="55">
         <v>1</v>
       </c>
-      <c r="G768" s="69" t="s">
+      <c r="G768" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H768" s="57" t="s">
@@ -62624,7 +62624,7 @@
       <c r="F769" s="55">
         <v>1</v>
       </c>
-      <c r="G769" s="69" t="s">
+      <c r="G769" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H769" s="57" t="s">
@@ -62646,7 +62646,7 @@
       <c r="F770" s="55">
         <v>1</v>
       </c>
-      <c r="G770" s="69" t="s">
+      <c r="G770" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H770" s="57" t="s">
@@ -62668,7 +62668,7 @@
       <c r="F771" s="55">
         <v>1</v>
       </c>
-      <c r="G771" s="69" t="s">
+      <c r="G771" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H771" s="57" t="s">
@@ -62690,7 +62690,7 @@
       <c r="F772" s="55">
         <v>1</v>
       </c>
-      <c r="G772" s="69" t="s">
+      <c r="G772" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H772" s="57" t="s">
@@ -62716,7 +62716,7 @@
       <c r="F773" s="55">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G773" s="69" t="s">
+      <c r="G773" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H773" s="57" t="s">
@@ -62742,7 +62742,7 @@
       <c r="F774" s="55">
         <v>0.3</v>
       </c>
-      <c r="G774" s="69" t="s">
+      <c r="G774" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H774" s="57" t="s">
@@ -62768,7 +62768,7 @@
       <c r="F775" s="55">
         <v>0.06</v>
       </c>
-      <c r="G775" s="69" t="s">
+      <c r="G775" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H775" s="57" t="s">
@@ -62794,7 +62794,7 @@
       <c r="F776" s="55">
         <v>0.1</v>
       </c>
-      <c r="G776" s="69" t="s">
+      <c r="G776" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H776" s="57" t="s">
@@ -62820,7 +62820,7 @@
       <c r="F777" s="55">
         <v>0.12</v>
       </c>
-      <c r="G777" s="69" t="s">
+      <c r="G777" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H777" s="57" t="s">
@@ -62846,7 +62846,7 @@
       <c r="F778" s="55">
         <v>0.12</v>
       </c>
-      <c r="G778" s="69" t="s">
+      <c r="G778" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H778" s="57" t="s">
@@ -62872,7 +62872,7 @@
       <c r="F779" s="55">
         <v>0.24</v>
       </c>
-      <c r="G779" s="69" t="s">
+      <c r="G779" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H779" s="57" t="s">
@@ -62898,7 +62898,7 @@
       <c r="F780" s="55">
         <v>0.3</v>
       </c>
-      <c r="G780" s="69" t="s">
+      <c r="G780" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H780" s="57" t="s">
@@ -62924,7 +62924,7 @@
       <c r="F781" s="55">
         <v>0.64</v>
       </c>
-      <c r="G781" s="69" t="s">
+      <c r="G781" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H781" s="57" t="s">
@@ -62950,7 +62950,7 @@
       <c r="F782" s="55">
         <v>0.3</v>
       </c>
-      <c r="G782" s="69" t="s">
+      <c r="G782" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H782" s="57" t="s">
@@ -62976,7 +62976,7 @@
       <c r="F783" s="55">
         <v>0.12</v>
       </c>
-      <c r="G783" s="69" t="s">
+      <c r="G783" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H783" s="57" t="s">
@@ -63002,7 +63002,7 @@
       <c r="F784" s="55">
         <v>0.1</v>
       </c>
-      <c r="G784" s="69" t="s">
+      <c r="G784" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H784" s="57" t="s">
@@ -63028,7 +63028,7 @@
       <c r="F785" s="55">
         <v>0.12</v>
       </c>
-      <c r="G785" s="69" t="s">
+      <c r="G785" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H785" s="57" t="s">
@@ -63054,7 +63054,7 @@
       <c r="F786" s="55">
         <v>0.12</v>
       </c>
-      <c r="G786" s="69" t="s">
+      <c r="G786" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H786" s="57" t="s">
@@ -63080,7 +63080,7 @@
       <c r="F787" s="55">
         <v>0.06</v>
       </c>
-      <c r="G787" s="69" t="s">
+      <c r="G787" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H787" s="57" t="s">
@@ -63106,7 +63106,7 @@
       <c r="F788" s="55">
         <v>0.3</v>
       </c>
-      <c r="G788" s="69" t="s">
+      <c r="G788" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H788" s="57" t="s">
@@ -63128,7 +63128,7 @@
       <c r="F789" s="55">
         <v>1</v>
       </c>
-      <c r="G789" s="69" t="s">
+      <c r="G789" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H789" s="57" t="s">
@@ -63150,7 +63150,7 @@
       <c r="F790" s="55">
         <v>1</v>
       </c>
-      <c r="G790" s="69" t="s">
+      <c r="G790" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H790" s="57" t="s">
@@ -63172,7 +63172,7 @@
       <c r="F791" s="55">
         <v>1</v>
       </c>
-      <c r="G791" s="69" t="s">
+      <c r="G791" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H791" s="57" t="s">
@@ -63194,7 +63194,7 @@
       <c r="F792" s="55">
         <v>1</v>
       </c>
-      <c r="G792" s="69" t="s">
+      <c r="G792" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H792" s="57" t="s">
@@ -63216,7 +63216,7 @@
       <c r="F793" s="55">
         <v>1</v>
       </c>
-      <c r="G793" s="69" t="s">
+      <c r="G793" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H793" s="57" t="s">
@@ -63238,7 +63238,7 @@
       <c r="F794" s="55">
         <v>1</v>
       </c>
-      <c r="G794" s="69" t="s">
+      <c r="G794" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H794" s="57" t="s">
@@ -63260,7 +63260,7 @@
       <c r="F795" s="55">
         <v>1</v>
       </c>
-      <c r="G795" s="69" t="s">
+      <c r="G795" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H795" s="57" t="s">
@@ -63282,7 +63282,7 @@
       <c r="F796" s="55">
         <v>1</v>
       </c>
-      <c r="G796" s="69" t="s">
+      <c r="G796" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H796" s="57" t="s">
@@ -63304,7 +63304,7 @@
       <c r="F797" s="55">
         <v>1</v>
       </c>
-      <c r="G797" s="69" t="s">
+      <c r="G797" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H797" s="57" t="s">
@@ -63330,7 +63330,7 @@
       <c r="F798" s="55">
         <v>0.64</v>
       </c>
-      <c r="G798" s="69" t="s">
+      <c r="G798" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H798" s="57" t="s">
@@ -63356,7 +63356,7 @@
       <c r="F799" s="55">
         <v>0.2</v>
       </c>
-      <c r="G799" s="69" t="s">
+      <c r="G799" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H799" s="57" t="s">
@@ -63382,7 +63382,7 @@
       <c r="F800" s="55">
         <v>0.12</v>
       </c>
-      <c r="G800" s="69" t="s">
+      <c r="G800" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H800" s="57" t="s">
@@ -63408,7 +63408,7 @@
       <c r="F801" s="55">
         <v>0.2</v>
       </c>
-      <c r="G801" s="69" t="s">
+      <c r="G801" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H801" s="57" t="s">
@@ -63434,7 +63434,7 @@
       <c r="F802" s="55">
         <v>0.12</v>
       </c>
-      <c r="G802" s="69" t="s">
+      <c r="G802" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H802" s="57" t="s">
@@ -63460,7 +63460,7 @@
       <c r="F803" s="55">
         <v>0.08</v>
       </c>
-      <c r="G803" s="69" t="s">
+      <c r="G803" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H803" s="57" t="s">
@@ -63486,7 +63486,7 @@
       <c r="F804" s="55">
         <v>0.06</v>
       </c>
-      <c r="G804" s="69" t="s">
+      <c r="G804" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H804" s="57" t="s">
@@ -63512,7 +63512,7 @@
       <c r="F805" s="55">
         <v>0.64</v>
       </c>
-      <c r="G805" s="69" t="s">
+      <c r="G805" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H805" s="57" t="s">
@@ -63538,7 +63538,7 @@
       <c r="F806" s="55">
         <v>0.2</v>
       </c>
-      <c r="G806" s="69" t="s">
+      <c r="G806" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H806" s="57" t="s">
@@ -63564,7 +63564,7 @@
       <c r="F807" s="55">
         <v>0.12</v>
       </c>
-      <c r="G807" s="69" t="s">
+      <c r="G807" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H807" s="57" t="s">
@@ -63590,7 +63590,7 @@
       <c r="F808" s="55">
         <v>0.2</v>
       </c>
-      <c r="G808" s="69" t="s">
+      <c r="G808" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H808" s="57" t="s">
@@ -63616,7 +63616,7 @@
       <c r="F809" s="55">
         <v>0.12</v>
       </c>
-      <c r="G809" s="69" t="s">
+      <c r="G809" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H809" s="57" t="s">
@@ -63642,7 +63642,7 @@
       <c r="F810" s="55">
         <v>0.08</v>
       </c>
-      <c r="G810" s="69" t="s">
+      <c r="G810" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H810" s="57" t="s">
@@ -63668,7 +63668,7 @@
       <c r="F811" s="55">
         <v>0.06</v>
       </c>
-      <c r="G811" s="69" t="s">
+      <c r="G811" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H811" s="57" t="s">
@@ -63694,7 +63694,7 @@
       <c r="F812" s="55">
         <v>0.64</v>
       </c>
-      <c r="G812" s="69" t="s">
+      <c r="G812" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H812" s="57" t="s">
@@ -63720,7 +63720,7 @@
       <c r="F813" s="55">
         <v>0.2</v>
       </c>
-      <c r="G813" s="69" t="s">
+      <c r="G813" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H813" s="57" t="s">
@@ -63746,7 +63746,7 @@
       <c r="F814" s="55">
         <v>0.12</v>
       </c>
-      <c r="G814" s="69" t="s">
+      <c r="G814" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H814" s="57" t="s">
@@ -63772,7 +63772,7 @@
       <c r="F815" s="55">
         <v>0.2</v>
       </c>
-      <c r="G815" s="69" t="s">
+      <c r="G815" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H815" s="57" t="s">
@@ -63798,7 +63798,7 @@
       <c r="F816" s="55">
         <v>0.12</v>
       </c>
-      <c r="G816" s="69" t="s">
+      <c r="G816" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H816" s="57" t="s">
@@ -63824,7 +63824,7 @@
       <c r="F817" s="55">
         <v>0.08</v>
       </c>
-      <c r="G817" s="69" t="s">
+      <c r="G817" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H817" s="57" t="s">
@@ -63850,7 +63850,7 @@
       <c r="F818" s="55">
         <v>0.06</v>
       </c>
-      <c r="G818" s="69" t="s">
+      <c r="G818" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H818" s="57" t="s">
@@ -63876,7 +63876,7 @@
       <c r="F819" s="55">
         <v>0.52</v>
       </c>
-      <c r="G819" s="69" t="s">
+      <c r="G819" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H819" s="57" t="s">
@@ -63902,7 +63902,7 @@
       <c r="F820" s="55">
         <v>0.3</v>
       </c>
-      <c r="G820" s="69" t="s">
+      <c r="G820" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H820" s="57" t="s">
@@ -63928,7 +63928,7 @@
       <c r="F821" s="55">
         <v>0.1</v>
       </c>
-      <c r="G821" s="69" t="s">
+      <c r="G821" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H821" s="57" t="s">
@@ -63954,7 +63954,7 @@
       <c r="F822" s="55">
         <v>0.12</v>
       </c>
-      <c r="G822" s="69" t="s">
+      <c r="G822" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H822" s="57" t="s">
@@ -63980,7 +63980,7 @@
       <c r="F823" s="55">
         <v>0.04</v>
       </c>
-      <c r="G823" s="69" t="s">
+      <c r="G823" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H823" s="57" t="s">
@@ -64006,7 +64006,7 @@
       <c r="F824" s="55">
         <v>0.06</v>
       </c>
-      <c r="G824" s="69" t="s">
+      <c r="G824" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H824" s="57" t="s">
@@ -64032,7 +64032,7 @@
       <c r="F825" s="55">
         <v>0.3</v>
       </c>
-      <c r="G825" s="69" t="s">
+      <c r="G825" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H825" s="57" t="s">
@@ -64058,7 +64058,7 @@
       <c r="F826" s="55">
         <v>0.32</v>
       </c>
-      <c r="G826" s="69" t="s">
+      <c r="G826" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H826" s="57" t="s">
@@ -64084,7 +64084,7 @@
       <c r="F827" s="55">
         <v>0.1</v>
       </c>
-      <c r="G827" s="69" t="s">
+      <c r="G827" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H827" s="57" t="s">
@@ -64110,7 +64110,7 @@
       <c r="F828" s="55">
         <v>0.1</v>
       </c>
-      <c r="G828" s="69" t="s">
+      <c r="G828" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H828" s="57" t="s">
@@ -64136,7 +64136,7 @@
       <c r="F829" s="55">
         <v>0.12</v>
       </c>
-      <c r="G829" s="69" t="s">
+      <c r="G829" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H829" s="57" t="s">
@@ -64162,7 +64162,7 @@
       <c r="F830" s="55">
         <v>0.04</v>
       </c>
-      <c r="G830" s="69" t="s">
+      <c r="G830" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H830" s="57" t="s">
@@ -64188,7 +64188,7 @@
       <c r="F831" s="55">
         <v>0.06</v>
       </c>
-      <c r="G831" s="69" t="s">
+      <c r="G831" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H831" s="57" t="s">
@@ -64214,7 +64214,7 @@
       <c r="F832" s="55">
         <v>0.3</v>
       </c>
-      <c r="G832" s="69" t="s">
+      <c r="G832" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H832" s="57" t="s">
@@ -64240,7 +64240,7 @@
       <c r="F833" s="55">
         <v>0.62</v>
       </c>
-      <c r="G833" s="69" t="s">
+      <c r="G833" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H833" s="57" t="s">
@@ -64266,7 +64266,7 @@
       <c r="F834" s="55">
         <v>0.4</v>
       </c>
-      <c r="G834" s="69" t="s">
+      <c r="G834" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H834" s="57" t="s">
@@ -64292,7 +64292,7 @@
       <c r="F835" s="55">
         <v>0.1</v>
       </c>
-      <c r="G835" s="69" t="s">
+      <c r="G835" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H835" s="57" t="s">
@@ -64318,7 +64318,7 @@
       <c r="F836" s="55">
         <v>0.12</v>
       </c>
-      <c r="G836" s="69" t="s">
+      <c r="G836" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H836" s="57" t="s">
@@ -64344,7 +64344,7 @@
       <c r="F837" s="55">
         <v>0.04</v>
       </c>
-      <c r="G837" s="69" t="s">
+      <c r="G837" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H837" s="57" t="s">
@@ -64370,7 +64370,7 @@
       <c r="F838" s="55">
         <v>0.18</v>
       </c>
-      <c r="G838" s="69" t="s">
+      <c r="G838" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H838" s="57" t="s">
@@ -64396,7 +64396,7 @@
       <c r="F839" s="55">
         <v>0.3</v>
       </c>
-      <c r="G839" s="69" t="s">
+      <c r="G839" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H839" s="57" t="s">
@@ -64418,7 +64418,7 @@
       <c r="F840" s="55">
         <v>1</v>
       </c>
-      <c r="G840" s="69" t="s">
+      <c r="G840" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H840" s="57" t="s">
@@ -64440,7 +64440,7 @@
       <c r="F841" s="55">
         <v>1</v>
       </c>
-      <c r="G841" s="69" t="s">
+      <c r="G841" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H841" s="57" t="s">
@@ -64462,7 +64462,7 @@
       <c r="F842" s="55">
         <v>1</v>
       </c>
-      <c r="G842" s="69" t="s">
+      <c r="G842" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H842" s="57" t="s">
@@ -64484,7 +64484,7 @@
       <c r="F843" s="55">
         <v>1</v>
       </c>
-      <c r="G843" s="69" t="s">
+      <c r="G843" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H843" s="57" t="s">
@@ -64506,7 +64506,7 @@
       <c r="F844" s="55">
         <v>1</v>
       </c>
-      <c r="G844" s="69" t="s">
+      <c r="G844" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H844" s="57" t="s">
@@ -64528,7 +64528,7 @@
       <c r="F845" s="55">
         <v>1</v>
       </c>
-      <c r="G845" s="69" t="s">
+      <c r="G845" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H845" s="57" t="s">
@@ -64550,7 +64550,7 @@
       <c r="F846" s="55">
         <v>1</v>
       </c>
-      <c r="G846" s="69" t="s">
+      <c r="G846" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H846" s="57" t="s">
@@ -64572,7 +64572,7 @@
       <c r="F847" s="55">
         <v>1</v>
       </c>
-      <c r="G847" s="69" t="s">
+      <c r="G847" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H847" s="57" t="s">
@@ -64594,7 +64594,7 @@
       <c r="F848" s="55">
         <v>1</v>
       </c>
-      <c r="G848" s="69" t="s">
+      <c r="G848" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H848" s="57" t="s">
@@ -64620,7 +64620,7 @@
       <c r="F849" s="55">
         <v>0.22</v>
       </c>
-      <c r="G849" s="69" t="s">
+      <c r="G849" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H849" s="57" t="s">
@@ -64646,7 +64646,7 @@
       <c r="F850" s="55">
         <v>0.1</v>
       </c>
-      <c r="G850" s="69" t="s">
+      <c r="G850" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H850" s="57" t="s">
@@ -64672,7 +64672,7 @@
       <c r="F851" s="55">
         <v>0.12</v>
       </c>
-      <c r="G851" s="69" t="s">
+      <c r="G851" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H851" s="57" t="s">
@@ -64698,7 +64698,7 @@
       <c r="F852" s="55">
         <v>0.08</v>
       </c>
-      <c r="G852" s="69" t="s">
+      <c r="G852" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H852" s="57" t="s">
@@ -64724,7 +64724,7 @@
       <c r="F853" s="55">
         <v>0.06</v>
       </c>
-      <c r="G853" s="69" t="s">
+      <c r="G853" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H853" s="57" t="s">
@@ -64746,7 +64746,7 @@
       <c r="F854" s="55">
         <v>1</v>
       </c>
-      <c r="G854" s="69" t="s">
+      <c r="G854" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H854" s="57" t="s">
@@ -64768,7 +64768,7 @@
       <c r="F855" s="55">
         <v>1</v>
       </c>
-      <c r="G855" s="69" t="s">
+      <c r="G855" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H855" s="57" t="s">
@@ -64790,7 +64790,7 @@
       <c r="F856" s="55">
         <v>1</v>
       </c>
-      <c r="G856" s="69" t="s">
+      <c r="G856" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H856" s="57" t="s">
@@ -64810,7 +64810,7 @@
         <v>84</v>
       </c>
       <c r="F857" s="55"/>
-      <c r="G857" s="69" t="s">
+      <c r="G857" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H857" s="57" t="s">
@@ -64832,7 +64832,7 @@
       <c r="F858" s="55">
         <v>1</v>
       </c>
-      <c r="G858" s="69" t="s">
+      <c r="G858" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H858" s="57" t="s">
@@ -64854,7 +64854,7 @@
       <c r="F859" s="55">
         <v>1</v>
       </c>
-      <c r="G859" s="69" t="s">
+      <c r="G859" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H859" s="57" t="s">
@@ -64876,7 +64876,7 @@
       <c r="F860" s="55">
         <v>1</v>
       </c>
-      <c r="G860" s="69" t="s">
+      <c r="G860" s="66" t="s">
         <v>661</v>
       </c>
       <c r="H860" s="57" t="s">
@@ -65180,24 +65180,24 @@
   <sheetData>
     <row r="2" spans="2:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B2" s="28"/>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="69" t="s">
         <v>644</v>
       </c>
-      <c r="D2" s="67"/>
+      <c r="D2" s="70"/>
     </row>
     <row r="3" spans="2:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B3" s="29"/>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="69" t="s">
         <v>645</v>
       </c>
-      <c r="D3" s="67"/>
+      <c r="D3" s="70"/>
     </row>
     <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="40"/>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="69" t="s">
         <v>648</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="71"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
